--- a/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -489,11 +489,6 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -562,11 +557,6 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -614,7 +604,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -635,11 +625,6 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -687,7 +672,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -708,11 +693,6 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -760,7 +740,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -781,11 +761,6 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -833,7 +808,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -854,11 +829,6 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -906,7 +876,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -927,11 +897,6 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -979,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1000,11 +965,6 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1052,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1073,11 +1033,6 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1125,7 +1080,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1146,11 +1101,6 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1198,7 +1148,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1219,11 +1169,6 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1271,7 +1216,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1292,11 +1237,6 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1344,7 +1284,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,11 +1305,6 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1417,7 +1352,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1438,11 +1373,6 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1490,7 +1420,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1511,11 +1441,6 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1563,7 +1488,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,11 +1509,6 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1636,7 +1556,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1657,11 +1577,6 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1709,7 +1624,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1730,11 +1645,6 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1782,7 +1692,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1803,11 +1713,6 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1855,7 +1760,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1876,11 +1781,6 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1928,7 +1828,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1949,11 +1849,6 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2001,7 +1896,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2022,11 +1917,6 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2074,7 +1964,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2095,11 +1985,6 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2147,7 +2032,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2168,11 +2053,6 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2220,7 +2100,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2241,11 +2121,6 @@
       <c r="L26" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2293,7 +2168,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2314,11 +2189,6 @@
       <c r="L27" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2366,7 +2236,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2387,11 +2257,6 @@
       <c r="L28" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2439,7 +2304,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2460,11 +2325,6 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2512,7 +2372,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2533,11 +2393,6 @@
       <c r="L30" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2585,7 +2440,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2606,11 +2461,6 @@
       <c r="L31" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2658,7 +2508,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2679,11 +2529,6 @@
       <c r="L32" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2731,7 +2576,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2752,11 +2597,6 @@
       <c r="L33" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2804,7 +2644,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2825,11 +2665,6 @@
       <c r="L34" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2877,7 +2712,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2898,11 +2733,6 @@
       <c r="L35" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2950,7 +2780,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2971,11 +2801,6 @@
       <c r="L36" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3023,7 +2848,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3044,11 +2869,6 @@
       <c r="L37" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3096,7 +2916,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3117,11 +2937,6 @@
       <c r="L38" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3169,7 +2984,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3190,11 +3005,6 @@
       <c r="L39" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3242,7 +3052,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3263,11 +3073,6 @@
       <c r="L40" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3315,7 +3120,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3336,11 +3141,6 @@
       <c r="L41" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3388,7 +3188,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3409,11 +3209,6 @@
       <c r="L42" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3461,7 +3256,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3482,11 +3277,6 @@
       <c r="L43" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3534,7 +3324,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3555,11 +3345,6 @@
       <c r="L44" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3607,7 +3392,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3628,11 +3413,6 @@
       <c r="L45" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3680,7 +3460,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3701,11 +3481,6 @@
       <c r="L46" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3753,7 +3528,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3774,11 +3549,6 @@
       <c r="L47" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3826,7 +3596,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3847,11 +3617,6 @@
       <c r="L48" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3899,7 +3664,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3920,11 +3685,6 @@
       <c r="L49" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3972,7 +3732,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3993,11 +3753,6 @@
       <c r="L50" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4045,7 +3800,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4066,11 +3821,6 @@
       <c r="L51" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4118,7 +3868,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4139,11 +3889,6 @@
       <c r="L52" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4191,7 +3936,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4212,11 +3957,6 @@
       <c r="L53" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4264,7 +4004,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4285,11 +4025,6 @@
       <c r="L54" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4337,7 +4072,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4358,11 +4093,6 @@
       <c r="L55" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4410,7 +4140,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4431,11 +4161,6 @@
       <c r="L56" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4483,7 +4208,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4504,11 +4229,6 @@
       <c r="L57" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4556,7 +4276,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4577,11 +4297,6 @@
       <c r="L58" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4629,7 +4344,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4650,11 +4365,6 @@
       <c r="L59" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4702,7 +4412,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4723,11 +4433,6 @@
       <c r="L60" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4775,7 +4480,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4796,11 +4501,6 @@
       <c r="L61" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4848,7 +4548,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4869,11 +4569,6 @@
       <c r="L62" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4921,7 +4616,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4942,11 +4637,6 @@
       <c r="L63" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4994,7 +4684,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5015,11 +4705,6 @@
       <c r="L64" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5067,7 +4752,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5088,11 +4773,6 @@
       <c r="L65" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5140,7 +4820,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5161,11 +4841,6 @@
       <c r="L66" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5213,7 +4888,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5234,11 +4909,6 @@
       <c r="L67" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5286,7 +4956,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5307,11 +4977,6 @@
       <c r="L68" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5359,7 +5024,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5380,11 +5045,6 @@
       <c r="L69" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5432,7 +5092,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5453,11 +5113,6 @@
       <c r="L70" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5505,7 +5160,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5526,11 +5181,6 @@
       <c r="L71" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5578,7 +5228,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5599,11 +5249,6 @@
       <c r="L72" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5651,7 +5296,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5672,11 +5317,6 @@
       <c r="L73" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5724,7 +5364,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5745,11 +5385,6 @@
       <c r="L74" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5797,7 +5432,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5818,11 +5453,6 @@
       <c r="L75" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5870,7 +5500,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5891,11 +5521,6 @@
       <c r="L76" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5943,7 +5568,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5964,11 +5589,6 @@
       <c r="L77" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6009,14 +5629,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6037,11 +5652,6 @@
       <c r="L78" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6079,7 +5689,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6100,11 +5710,6 @@
       <c r="L79" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6152,7 +5757,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6173,11 +5778,6 @@
       <c r="L80" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6225,7 +5825,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6246,11 +5846,6 @@
       <c r="L81" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6298,7 +5893,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6319,11 +5914,6 @@
       <c r="L82" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6371,7 +5961,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6392,11 +5982,6 @@
       <c r="L83" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6444,7 +6029,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6465,11 +6050,6 @@
       <c r="L84" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6517,7 +6097,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6538,11 +6118,6 @@
       <c r="L85" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6590,7 +6165,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6611,11 +6186,6 @@
       <c r="L86" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6663,7 +6233,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6684,11 +6254,6 @@
       <c r="L87" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6736,7 +6301,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6757,11 +6322,6 @@
       <c r="L88" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6809,7 +6369,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6830,11 +6390,6 @@
       <c r="L89" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6882,7 +6437,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6903,11 +6458,6 @@
       <c r="L90" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6955,7 +6505,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6976,11 +6526,6 @@
       <c r="L91" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7028,7 +6573,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7049,11 +6594,6 @@
       <c r="L92" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7101,7 +6641,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7122,11 +6662,6 @@
       <c r="L93" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7174,7 +6709,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7195,11 +6730,6 @@
       <c r="L94" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7240,14 +6770,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7268,11 +6793,6 @@
       <c r="L95" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7310,7 +6830,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7331,11 +6851,6 @@
       <c r="L96" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7383,7 +6898,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7404,11 +6919,6 @@
       <c r="L97" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7456,7 +6966,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7477,11 +6987,6 @@
       <c r="L98" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7529,7 +7034,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7550,11 +7055,6 @@
       <c r="L99" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7602,7 +7102,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7623,11 +7123,6 @@
       <c r="L100" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7675,7 +7170,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7696,11 +7191,6 @@
       <c r="L101" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7748,7 +7238,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7769,11 +7259,6 @@
       <c r="L102" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7821,7 +7306,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7842,11 +7327,6 @@
       <c r="L103" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7894,7 +7374,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7915,11 +7395,6 @@
       <c r="L104" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7967,7 +7442,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7988,11 +7463,6 @@
       <c r="L105" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8040,7 +7510,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8061,11 +7531,6 @@
       <c r="L106" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8113,7 +7578,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8134,11 +7599,6 @@
       <c r="L107" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8186,7 +7646,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8207,11 +7667,6 @@
       <c r="L108" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8259,7 +7714,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8280,11 +7735,6 @@
       <c r="L109" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8332,7 +7782,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8353,11 +7803,6 @@
       <c r="L110" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8405,7 +7850,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8426,11 +7871,6 @@
       <c r="L111" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8478,7 +7918,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8499,11 +7939,6 @@
       <c r="L112" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8551,7 +7986,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8572,11 +8007,6 @@
       <c r="L113" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8624,7 +8054,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8645,11 +8075,6 @@
       <c r="L114" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8697,7 +8122,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8718,11 +8143,6 @@
       <c r="L115" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8770,7 +8190,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8791,11 +8211,6 @@
       <c r="L116" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8843,7 +8258,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8864,11 +8279,6 @@
       <c r="L117" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8916,7 +8326,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8937,11 +8347,6 @@
       <c r="L118" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8989,7 +8394,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9010,11 +8415,6 @@
       <c r="L119" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9062,7 +8462,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9083,11 +8483,6 @@
       <c r="L120" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9135,7 +8530,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9156,11 +8551,6 @@
       <c r="L121" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9208,7 +8598,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9229,11 +8619,6 @@
       <c r="L122" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9281,7 +8666,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9302,11 +8687,6 @@
       <c r="L123" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9354,7 +8734,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9375,11 +8755,6 @@
       <c r="L124" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9427,7 +8802,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9448,11 +8823,6 @@
       <c r="L125" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9500,7 +8870,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9521,11 +8891,6 @@
       <c r="L126" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9573,7 +8938,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9594,11 +8959,6 @@
       <c r="L127" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9646,7 +9006,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9667,11 +9027,6 @@
       <c r="L128" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9719,7 +9074,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9740,11 +9095,6 @@
       <c r="L129" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9792,7 +9142,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9813,11 +9163,6 @@
       <c r="L130" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9865,7 +9210,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9886,11 +9231,6 @@
       <c r="L131" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9938,7 +9278,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9959,11 +9299,6 @@
       <c r="L132" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10011,7 +9346,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10032,11 +9367,6 @@
       <c r="L133" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10084,7 +9414,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10105,11 +9435,6 @@
       <c r="L134" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10157,7 +9482,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10178,11 +9503,6 @@
       <c r="L135" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10230,7 +9550,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10251,11 +9571,6 @@
       <c r="L136" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10303,7 +9618,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10324,11 +9639,6 @@
       <c r="L137" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10376,7 +9686,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10397,11 +9707,6 @@
       <c r="L138" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10449,7 +9754,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10470,11 +9775,6 @@
       <c r="L139" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10522,7 +9822,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10543,11 +9843,6 @@
       <c r="L140" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10595,7 +9890,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10616,11 +9911,6 @@
       <c r="L141" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -10668,7 +9958,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10689,11 +9979,6 @@
       <c r="L142" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10741,7 +10026,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10762,11 +10047,6 @@
       <c r="L143" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10814,7 +10094,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10835,11 +10115,6 @@
       <c r="L144" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10887,7 +10162,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10908,11 +10183,6 @@
       <c r="L145" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10960,7 +10230,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10981,11 +10251,6 @@
       <c r="L146" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -11033,7 +10298,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -11054,11 +10319,6 @@
       <c r="L147" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -11106,7 +10366,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11127,11 +10387,6 @@
       <c r="L148" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -11172,14 +10427,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11200,11 +10450,6 @@
       <c r="L149" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -11242,7 +10487,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11263,11 +10508,6 @@
       <c r="L150" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11315,7 +10555,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11336,11 +10576,6 @@
       <c r="L151" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -11388,7 +10623,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11409,11 +10644,6 @@
       <c r="L152" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -11461,7 +10691,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11482,11 +10712,6 @@
       <c r="L153" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -11534,7 +10759,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11555,11 +10780,6 @@
       <c r="L154" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -11607,7 +10827,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11628,11 +10848,6 @@
       <c r="L155" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -11680,7 +10895,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11701,11 +10916,6 @@
       <c r="L156" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -11753,7 +10963,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11774,11 +10984,6 @@
       <c r="L157" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11826,7 +11031,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11847,11 +11052,6 @@
       <c r="L158" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11899,7 +11099,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11920,11 +11120,6 @@
       <c r="L159" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11972,7 +11167,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11993,11 +11188,6 @@
       <c r="L160" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -12045,7 +11235,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -12066,11 +11256,6 @@
       <c r="L161" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -12118,7 +11303,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12139,11 +11324,6 @@
       <c r="L162" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -12191,7 +11371,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12212,11 +11392,6 @@
       <c r="L163" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -12264,7 +11439,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12285,11 +11460,6 @@
       <c r="L164" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -12337,7 +11507,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/03/2020 00:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12358,11 +11528,6 @@
       <c r="L165" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>2020-02-14</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -12410,7 +11575,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12431,11 +11596,6 @@
       <c r="L166" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -12483,7 +11643,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12504,11 +11664,6 @@
       <c r="L167" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -12556,7 +11711,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12577,11 +11732,6 @@
       <c r="L168" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -12629,7 +11779,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12650,11 +11800,6 @@
       <c r="L169" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -12702,7 +11847,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12723,11 +11868,6 @@
       <c r="L170" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -12775,7 +11915,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12796,11 +11936,6 @@
       <c r="L171" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -12848,7 +11983,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12869,11 +12004,6 @@
       <c r="L172" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12921,7 +12051,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12942,11 +12072,6 @@
       <c r="L173" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12994,7 +12119,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -13015,11 +12140,6 @@
       <c r="L174" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -13067,7 +12187,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -13088,11 +12208,6 @@
       <c r="L175" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -13140,7 +12255,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13161,11 +12276,6 @@
       <c r="L176" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -13213,7 +12323,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13234,11 +12344,6 @@
       <c r="L177" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -13286,7 +12391,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13307,11 +12412,6 @@
       <c r="L178" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -13359,7 +12459,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13380,11 +12480,6 @@
       <c r="L179" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -13432,7 +12527,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13453,11 +12548,6 @@
       <c r="L180" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -13505,7 +12595,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13526,11 +12616,6 @@
       <c r="L181" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -13578,7 +12663,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13599,11 +12684,6 @@
       <c r="L182" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -13651,7 +12731,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13672,11 +12752,6 @@
       <c r="L183" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -13724,7 +12799,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13745,11 +12820,6 @@
       <c r="L184" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -13797,7 +12867,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13818,11 +12888,6 @@
       <c r="L185" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -13863,14 +12928,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13891,11 +12951,6 @@
       <c r="L186" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -13933,7 +12988,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13954,11 +13009,6 @@
       <c r="L187" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -14006,7 +13056,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -14027,11 +13077,6 @@
       <c r="L188" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -14079,7 +13124,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -14100,11 +13145,6 @@
       <c r="L189" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -14152,7 +13192,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14173,11 +13213,6 @@
       <c r="L190" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -14225,7 +13260,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14246,11 +13281,6 @@
       <c r="L191" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -14298,7 +13328,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14319,11 +13349,6 @@
       <c r="L192" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -14371,7 +13396,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14392,11 +13417,6 @@
       <c r="L193" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -14444,7 +13464,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14465,11 +13485,6 @@
       <c r="L194" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -14517,7 +13532,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14538,11 +13553,6 @@
       <c r="L195" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -14590,7 +13600,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14611,11 +13621,6 @@
       <c r="L196" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -14663,7 +13668,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14684,11 +13689,6 @@
       <c r="L197" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -14736,7 +13736,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14757,11 +13757,6 @@
       <c r="L198" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -14809,7 +13804,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14830,11 +13825,6 @@
       <c r="L199" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -14882,7 +13872,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14903,11 +13893,6 @@
       <c r="L200" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -14955,7 +13940,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14976,11 +13961,6 @@
       <c r="L201" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -15028,7 +14008,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -15049,11 +14029,6 @@
       <c r="L202" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -15101,7 +14076,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -15122,11 +14097,6 @@
       <c r="L203" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -15174,7 +14144,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15195,11 +14165,6 @@
       <c r="L204" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -15247,7 +14212,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15268,11 +14233,6 @@
       <c r="L205" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -15320,7 +14280,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15341,11 +14301,6 @@
       <c r="L206" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -15393,7 +14348,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15414,11 +14369,6 @@
       <c r="L207" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -15466,7 +14416,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15487,11 +14437,6 @@
       <c r="L208" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15539,7 +14484,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15560,11 +14505,6 @@
       <c r="L209" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15612,7 +14552,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15633,11 +14573,6 @@
       <c r="L210" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -15685,7 +14620,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15706,11 +14641,6 @@
       <c r="L211" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -15758,7 +14688,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15779,11 +14709,6 @@
       <c r="L212" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -15824,14 +14749,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15852,11 +14772,6 @@
       <c r="L213" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -15894,7 +14809,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15915,11 +14830,6 @@
       <c r="L214" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -15967,7 +14877,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15988,11 +14898,6 @@
       <c r="L215" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -16040,7 +14945,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -16061,11 +14966,6 @@
       <c r="L216" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -16113,7 +15013,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -16134,11 +15034,6 @@
       <c r="L217" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -16186,7 +15081,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16207,11 +15102,6 @@
       <c r="L218" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -16259,7 +15149,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16280,11 +15170,6 @@
       <c r="L219" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -16332,7 +15217,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16353,11 +15238,6 @@
       <c r="L220" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -16405,7 +15285,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16426,11 +15306,6 @@
       <c r="L221" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -16478,7 +15353,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16499,11 +15374,6 @@
       <c r="L222" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -16551,7 +15421,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16572,11 +15442,6 @@
       <c r="L223" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -16624,7 +15489,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16645,11 +15510,6 @@
       <c r="L224" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -16697,7 +15557,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16718,11 +15578,6 @@
       <c r="L225" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -16770,7 +15625,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16791,11 +15646,6 @@
       <c r="L226" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -16843,7 +15693,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16864,11 +15714,6 @@
       <c r="L227" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -16916,7 +15761,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16937,11 +15782,6 @@
       <c r="L228" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -16989,7 +15829,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -17010,11 +15850,6 @@
       <c r="L229" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -17055,14 +15890,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -17083,11 +15913,6 @@
       <c r="L230" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -17125,7 +15950,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -17146,11 +15971,6 @@
       <c r="L231" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -17198,7 +16018,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17219,11 +16039,6 @@
       <c r="L232" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -17271,7 +16086,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17292,11 +16107,6 @@
       <c r="L233" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -17344,7 +16154,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17365,11 +16175,6 @@
       <c r="L234" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -17417,7 +16222,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17438,11 +16243,6 @@
       <c r="L235" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -17490,7 +16290,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17511,11 +16311,6 @@
       <c r="L236" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -17563,7 +16358,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17584,11 +16379,6 @@
       <c r="L237" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -17629,14 +16419,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17657,11 +16442,6 @@
       <c r="L238" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -17699,7 +16479,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17720,11 +16500,6 @@
       <c r="L239" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -17772,7 +16547,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17793,11 +16568,6 @@
       <c r="L240" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -17845,7 +16615,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17866,11 +16636,6 @@
       <c r="L241" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -17918,7 +16683,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17939,11 +16704,6 @@
       <c r="L242" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -17991,7 +16751,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -18012,11 +16772,6 @@
       <c r="L243" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -18064,7 +16819,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -18085,11 +16840,6 @@
       <c r="L244" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -18137,7 +16887,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18158,11 +16908,6 @@
       <c r="L245" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -18210,7 +16955,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18231,11 +16976,6 @@
       <c r="L246" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -18283,7 +17023,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18304,11 +17044,6 @@
       <c r="L247" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -18356,7 +17091,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18377,11 +17112,6 @@
       <c r="L248" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -18429,7 +17159,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18450,11 +17180,6 @@
       <c r="L249" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -18502,7 +17227,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18523,11 +17248,6 @@
       <c r="L250" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -18575,7 +17295,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18596,11 +17316,6 @@
       <c r="L251" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -18648,7 +17363,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18669,11 +17384,6 @@
       <c r="L252" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -18721,7 +17431,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18742,11 +17452,6 @@
       <c r="L253" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -18794,7 +17499,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18815,11 +17520,6 @@
       <c r="L254" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -18867,7 +17567,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18888,11 +17588,6 @@
       <c r="L255" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -18940,7 +17635,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18961,11 +17656,6 @@
       <c r="L256" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -19013,7 +17703,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -19034,11 +17724,6 @@
       <c r="L257" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -19086,7 +17771,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -19107,11 +17792,6 @@
       <c r="L258" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -19159,7 +17839,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -19180,11 +17860,6 @@
       <c r="L259" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -19232,7 +17907,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19253,11 +17928,6 @@
       <c r="L260" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -19305,7 +17975,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19326,11 +17996,6 @@
       <c r="L261" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -19378,7 +18043,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -19399,11 +18064,6 @@
       <c r="L262" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -19451,7 +18111,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19472,11 +18132,6 @@
       <c r="L263" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -19524,7 +18179,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19545,11 +18200,6 @@
       <c r="L264" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -19597,7 +18247,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19618,11 +18268,6 @@
       <c r="L265" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M265" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -19670,7 +18315,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19691,11 +18336,6 @@
       <c r="L266" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -19743,7 +18383,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19764,11 +18404,6 @@
       <c r="L267" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -19816,7 +18451,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19837,11 +18472,6 @@
       <c r="L268" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -19889,7 +18519,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19910,11 +18540,6 @@
       <c r="L269" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M269" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -19955,14 +18580,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19983,11 +18603,6 @@
       <c r="L270" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -20025,7 +18640,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -20046,11 +18661,6 @@
       <c r="L271" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M271" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -20098,7 +18708,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -20119,11 +18729,6 @@
       <c r="L272" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -20171,7 +18776,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20192,11 +18797,6 @@
       <c r="L273" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M273" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -20244,7 +18844,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20265,11 +18865,6 @@
       <c r="L274" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M274" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -20317,7 +18912,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20338,11 +18933,6 @@
       <c r="L275" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -20390,7 +18980,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20411,11 +19001,6 @@
       <c r="L276" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -20463,7 +19048,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20484,11 +19069,6 @@
       <c r="L277" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -20536,7 +19116,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20557,11 +19137,6 @@
       <c r="L278" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -20609,7 +19184,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20630,11 +19205,6 @@
       <c r="L279" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -20682,7 +19252,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20703,11 +19273,6 @@
       <c r="L280" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -20755,7 +19320,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20776,11 +19341,6 @@
       <c r="L281" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -20828,7 +19388,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20849,11 +19409,6 @@
       <c r="L282" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -20901,7 +19456,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20922,11 +19477,6 @@
       <c r="L283" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M283" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -20974,7 +19524,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20995,11 +19545,6 @@
       <c r="L284" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -21047,7 +19592,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -21068,11 +19613,6 @@
       <c r="L285" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -21120,7 +19660,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -21141,11 +19681,6 @@
       <c r="L286" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -21193,7 +19728,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21214,11 +19749,6 @@
       <c r="L287" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -21266,7 +19796,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21287,11 +19817,6 @@
       <c r="L288" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -21339,7 +19864,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21360,11 +19885,6 @@
       <c r="L289" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M289" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -21412,7 +19932,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21433,11 +19953,6 @@
       <c r="L290" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M290" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -21485,7 +20000,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21506,11 +20021,6 @@
       <c r="L291" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -21558,7 +20068,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21579,11 +20089,6 @@
       <c r="L292" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -21631,7 +20136,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21652,11 +20157,6 @@
       <c r="L293" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -21704,7 +20204,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21725,11 +20225,6 @@
       <c r="L294" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -21777,7 +20272,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21798,11 +20293,6 @@
       <c r="L295" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -21843,14 +20333,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21871,11 +20356,6 @@
       <c r="L296" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M296" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -21913,7 +20393,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21934,11 +20414,6 @@
       <c r="L297" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M297" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -21986,7 +20461,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -22007,11 +20482,6 @@
       <c r="L298" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M298" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -22059,7 +20529,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -22080,11 +20550,6 @@
       <c r="L299" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -22132,7 +20597,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -22153,11 +20618,6 @@
       <c r="L300" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -22205,7 +20665,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22226,11 +20686,6 @@
       <c r="L301" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -22278,7 +20733,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22299,11 +20754,6 @@
       <c r="L302" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -22351,7 +20801,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22372,11 +20822,6 @@
       <c r="L303" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -22424,7 +20869,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22445,11 +20890,6 @@
       <c r="L304" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -22497,7 +20937,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22518,11 +20958,6 @@
       <c r="L305" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -22563,14 +20998,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22591,11 +21021,6 @@
       <c r="L306" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -22633,7 +21058,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22654,11 +21079,6 @@
       <c r="L307" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -22706,7 +21126,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22727,11 +21147,6 @@
       <c r="L308" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M308" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -22779,7 +21194,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22800,11 +21215,6 @@
       <c r="L309" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -22852,7 +21262,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22873,11 +21283,6 @@
       <c r="L310" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M310" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -22925,7 +21330,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22946,11 +21351,6 @@
       <c r="L311" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -22998,7 +21398,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -23019,11 +21419,6 @@
       <c r="L312" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M312" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -23071,7 +21466,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -23092,11 +21487,6 @@
       <c r="L313" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -23144,7 +21534,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -23165,11 +21555,6 @@
       <c r="L314" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -23217,7 +21602,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23238,11 +21623,6 @@
       <c r="L315" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -23290,7 +21670,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -23311,11 +21691,6 @@
       <c r="L316" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -23363,7 +21738,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23384,11 +21759,6 @@
       <c r="L317" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M317" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -23436,7 +21806,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23457,11 +21827,6 @@
       <c r="L318" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -23509,7 +21874,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23530,11 +21895,6 @@
       <c r="L319" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M319" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -23582,7 +21942,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23603,11 +21963,6 @@
       <c r="L320" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M320" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -23655,7 +22010,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23676,11 +22031,6 @@
       <c r="L321" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M321" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -23728,7 +22078,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23749,11 +22099,6 @@
       <c r="L322" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -23801,7 +22146,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23822,11 +22167,6 @@
       <c r="L323" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M323" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -23867,14 +22207,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23895,11 +22230,6 @@
       <c r="L324" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M324" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -23937,7 +22267,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23958,11 +22288,6 @@
       <c r="L325" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -24010,7 +22335,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -24031,11 +22356,6 @@
       <c r="L326" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -24083,7 +22403,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -24104,11 +22424,6 @@
       <c r="L327" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -24156,7 +22471,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -24177,11 +22492,6 @@
       <c r="L328" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M328" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -24229,7 +22539,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24250,11 +22560,6 @@
       <c r="L329" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M329" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -24302,7 +22607,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -24323,11 +22628,6 @@
       <c r="L330" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M330" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -24375,7 +22675,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24396,11 +22696,6 @@
       <c r="L331" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M331" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -24448,7 +22743,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24469,11 +22764,6 @@
       <c r="L332" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M332" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -24521,7 +22811,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24542,11 +22832,6 @@
       <c r="L333" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -24594,7 +22879,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24615,11 +22900,6 @@
       <c r="L334" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M334" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -24667,7 +22947,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24688,11 +22968,6 @@
       <c r="L335" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M335" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -24740,7 +23015,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24761,11 +23036,6 @@
       <c r="L336" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M336" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -24813,7 +23083,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24834,11 +23104,6 @@
       <c r="L337" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M337" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -24886,7 +23151,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24907,11 +23172,6 @@
       <c r="L338" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M338" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -24959,7 +23219,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24980,11 +23240,6 @@
       <c r="L339" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -25032,7 +23287,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -25053,11 +23308,6 @@
       <c r="L340" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M340" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -25098,14 +23348,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -25126,11 +23371,6 @@
       <c r="L341" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M341" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -25168,7 +23408,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -25189,11 +23429,6 @@
       <c r="L342" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M342" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -25241,7 +23476,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25262,11 +23497,6 @@
       <c r="L343" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M343" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -25314,7 +23544,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25335,11 +23565,6 @@
       <c r="L344" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M344" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -25387,7 +23612,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25408,11 +23633,6 @@
       <c r="L345" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -25460,7 +23680,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25481,11 +23701,6 @@
       <c r="L346" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M346" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -25533,7 +23748,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25554,11 +23769,6 @@
       <c r="L347" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -25606,7 +23816,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25627,11 +23837,6 @@
       <c r="L348" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M348" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -25679,7 +23884,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25700,11 +23905,6 @@
       <c r="L349" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -25752,7 +23952,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25773,11 +23973,6 @@
       <c r="L350" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M350" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -25825,7 +24020,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25846,11 +24041,6 @@
       <c r="L351" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -25898,7 +24088,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25919,11 +24109,6 @@
       <c r="L352" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M352" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -25971,7 +24156,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25992,11 +24177,6 @@
       <c r="L353" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
@@ -26044,7 +24224,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -26065,11 +24245,6 @@
       <c r="L354" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -26117,7 +24292,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -26138,11 +24313,6 @@
       <c r="L355" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M355" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -26190,7 +24360,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -26211,11 +24381,6 @@
       <c r="L356" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M356" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -26263,7 +24428,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26284,11 +24449,6 @@
       <c r="L357" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M357" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -26336,7 +24496,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26357,11 +24517,6 @@
       <c r="L358" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M358" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -26402,14 +24557,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26430,11 +24580,6 @@
       <c r="L359" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M359" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -26472,7 +24617,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26493,11 +24638,6 @@
       <c r="L360" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M360" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -26545,7 +24685,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26566,11 +24706,6 @@
       <c r="L361" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M361" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -26618,7 +24753,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26639,11 +24774,6 @@
       <c r="L362" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M362" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -26691,7 +24821,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26712,11 +24842,6 @@
       <c r="L363" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M363" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -26764,7 +24889,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26785,11 +24910,6 @@
       <c r="L364" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M364" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -26830,14 +24950,9 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>6099</t>
-        </is>
-      </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26858,11 +24973,6 @@
       <c r="L365" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M365" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -26900,7 +25010,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26921,11 +25031,6 @@
       <c r="L366" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M366" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -26973,7 +25078,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26994,11 +25099,6 @@
       <c r="L367" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M367" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -27046,7 +25146,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -27067,11 +25167,6 @@
       <c r="L368" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -27119,7 +25214,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -27140,11 +25235,6 @@
       <c r="L369" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M369" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -27192,7 +25282,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -27213,11 +25303,6 @@
       <c r="L370" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M370" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -27265,7 +25350,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>15/03/2021 00:00</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27286,11 +25371,6 @@
       <c r="L371" t="inlineStr">
         <is>
           <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="M371" t="inlineStr">
-        <is>
-          <t>2021-02-14</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">

--- a/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -489,6 +489,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -536,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -557,6 +562,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -625,6 +635,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -672,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -693,6 +708,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -761,6 +781,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -808,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -829,6 +854,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -876,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -897,6 +927,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -965,6 +1000,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1012,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1033,6 +1073,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1080,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1101,6 +1146,11 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1169,6 +1219,11 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1216,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1237,6 +1292,11 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1284,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1305,6 +1365,11 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1352,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1373,6 +1438,11 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1420,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1441,6 +1511,11 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1488,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1509,6 +1584,11 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1556,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1577,6 +1657,11 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1624,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1645,6 +1730,11 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1692,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1713,6 +1803,11 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1760,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1781,6 +1876,11 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1828,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1849,6 +1949,11 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1896,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1917,6 +2022,11 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1964,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1985,6 +2095,11 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2032,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2053,6 +2168,11 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2100,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2121,6 +2241,11 @@
       <c r="L26" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2168,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2189,6 +2314,11 @@
       <c r="L27" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2236,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2257,6 +2387,11 @@
       <c r="L28" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2304,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2325,6 +2460,11 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2372,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2393,6 +2533,11 @@
       <c r="L30" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2440,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2461,6 +2606,11 @@
       <c r="L31" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2508,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2529,6 +2679,11 @@
       <c r="L32" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2576,7 +2731,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2597,6 +2752,11 @@
       <c r="L33" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2644,7 +2804,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2665,6 +2825,11 @@
       <c r="L34" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2712,7 +2877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2733,6 +2898,11 @@
       <c r="L35" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2780,7 +2950,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2801,6 +2971,11 @@
       <c r="L36" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2848,7 +3023,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2869,6 +3044,11 @@
       <c r="L37" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2916,7 +3096,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2937,6 +3117,11 @@
       <c r="L38" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2984,7 +3169,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3005,6 +3190,11 @@
       <c r="L39" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3052,7 +3242,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3073,6 +3263,11 @@
       <c r="L40" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3120,7 +3315,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3141,6 +3336,11 @@
       <c r="L41" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3188,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3209,6 +3409,11 @@
       <c r="L42" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3256,7 +3461,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3277,6 +3482,11 @@
       <c r="L43" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3324,7 +3534,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3345,6 +3555,11 @@
       <c r="L44" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3392,7 +3607,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3413,6 +3628,11 @@
       <c r="L45" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3460,7 +3680,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3481,6 +3701,11 @@
       <c r="L46" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3528,7 +3753,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3549,6 +3774,11 @@
       <c r="L47" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3596,7 +3826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3617,6 +3847,11 @@
       <c r="L48" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3664,7 +3899,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3685,6 +3920,11 @@
       <c r="L49" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3732,7 +3972,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3753,6 +3993,11 @@
       <c r="L50" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3800,7 +4045,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3821,6 +4066,11 @@
       <c r="L51" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3868,7 +4118,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3889,6 +4139,11 @@
       <c r="L52" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3936,7 +4191,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3957,6 +4212,11 @@
       <c r="L53" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4004,7 +4264,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4025,6 +4285,11 @@
       <c r="L54" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4072,7 +4337,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4093,6 +4358,11 @@
       <c r="L55" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4140,7 +4410,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4161,6 +4431,11 @@
       <c r="L56" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4208,7 +4483,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4229,6 +4504,11 @@
       <c r="L57" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4276,7 +4556,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4297,6 +4577,11 @@
       <c r="L58" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4344,7 +4629,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4365,6 +4650,11 @@
       <c r="L59" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4412,7 +4702,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4433,6 +4723,11 @@
       <c r="L60" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4480,7 +4775,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4501,6 +4796,11 @@
       <c r="L61" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4548,7 +4848,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4569,6 +4869,11 @@
       <c r="L62" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4616,7 +4921,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4637,6 +4942,11 @@
       <c r="L63" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4684,7 +4994,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4705,6 +5015,11 @@
       <c r="L64" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4752,7 +5067,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4773,6 +5088,11 @@
       <c r="L65" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4820,7 +5140,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4841,6 +5161,11 @@
       <c r="L66" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4888,7 +5213,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4909,6 +5234,11 @@
       <c r="L67" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4956,7 +5286,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4977,6 +5307,11 @@
       <c r="L68" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5024,7 +5359,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5045,6 +5380,11 @@
       <c r="L69" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5092,7 +5432,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5113,6 +5453,11 @@
       <c r="L70" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5160,7 +5505,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5181,6 +5526,11 @@
       <c r="L71" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5228,7 +5578,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5249,6 +5599,11 @@
       <c r="L72" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5296,7 +5651,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5317,6 +5672,11 @@
       <c r="L73" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5364,7 +5724,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5385,6 +5745,11 @@
       <c r="L74" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5432,7 +5797,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5453,6 +5818,11 @@
       <c r="L75" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5500,7 +5870,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5521,6 +5891,11 @@
       <c r="L76" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5568,7 +5943,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5589,6 +5964,11 @@
       <c r="L77" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5631,7 +6011,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5652,6 +6032,11 @@
       <c r="L78" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5689,7 +6074,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5710,6 +6095,11 @@
       <c r="L79" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5757,7 +6147,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5778,6 +6168,11 @@
       <c r="L80" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5825,7 +6220,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5846,6 +6241,11 @@
       <c r="L81" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5893,7 +6293,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5914,6 +6314,11 @@
       <c r="L82" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5961,7 +6366,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5982,6 +6387,11 @@
       <c r="L83" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6029,7 +6439,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6050,6 +6460,11 @@
       <c r="L84" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6097,7 +6512,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6118,6 +6533,11 @@
       <c r="L85" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6165,7 +6585,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6186,6 +6606,11 @@
       <c r="L86" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6233,7 +6658,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6254,6 +6679,11 @@
       <c r="L87" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6301,7 +6731,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6322,6 +6752,11 @@
       <c r="L88" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6369,7 +6804,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6390,6 +6825,11 @@
       <c r="L89" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6437,7 +6877,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6458,6 +6898,11 @@
       <c r="L90" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6505,7 +6950,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6526,6 +6971,11 @@
       <c r="L91" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6573,7 +7023,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6594,6 +7044,11 @@
       <c r="L92" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6641,7 +7096,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6662,6 +7117,11 @@
       <c r="L93" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6709,7 +7169,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6730,6 +7190,11 @@
       <c r="L94" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6772,7 +7237,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6793,6 +7258,11 @@
       <c r="L95" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -6830,7 +7300,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6851,6 +7321,11 @@
       <c r="L96" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -6898,7 +7373,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6919,6 +7394,11 @@
       <c r="L97" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -6966,7 +7446,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6987,6 +7467,11 @@
       <c r="L98" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7034,7 +7519,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7055,6 +7540,11 @@
       <c r="L99" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7102,7 +7592,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7123,6 +7613,11 @@
       <c r="L100" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7170,7 +7665,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7191,6 +7686,11 @@
       <c r="L101" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7238,7 +7738,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7259,6 +7759,11 @@
       <c r="L102" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7306,7 +7811,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7327,6 +7832,11 @@
       <c r="L103" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7374,7 +7884,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7395,6 +7905,11 @@
       <c r="L104" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7442,7 +7957,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7463,6 +7978,11 @@
       <c r="L105" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7510,7 +8030,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7531,6 +8051,11 @@
       <c r="L106" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7578,7 +8103,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7599,6 +8124,11 @@
       <c r="L107" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7646,7 +8176,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7667,6 +8197,11 @@
       <c r="L108" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -7714,7 +8249,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7735,6 +8270,11 @@
       <c r="L109" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -7782,7 +8322,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7803,6 +8343,11 @@
       <c r="L110" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -7850,7 +8395,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7871,6 +8416,11 @@
       <c r="L111" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -7918,7 +8468,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7939,6 +8489,11 @@
       <c r="L112" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -7986,7 +8541,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8007,6 +8562,11 @@
       <c r="L113" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8054,7 +8614,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8075,6 +8635,11 @@
       <c r="L114" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8122,7 +8687,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8143,6 +8708,11 @@
       <c r="L115" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8190,7 +8760,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8211,6 +8781,11 @@
       <c r="L116" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8258,7 +8833,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8279,6 +8854,11 @@
       <c r="L117" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8326,7 +8906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8347,6 +8927,11 @@
       <c r="L118" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8394,7 +8979,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8415,6 +9000,11 @@
       <c r="L119" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8462,7 +9052,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8483,6 +9073,11 @@
       <c r="L120" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8530,7 +9125,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8551,6 +9146,11 @@
       <c r="L121" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -8598,7 +9198,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8619,6 +9219,11 @@
       <c r="L122" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -8666,7 +9271,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8687,6 +9292,11 @@
       <c r="L123" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -8734,7 +9344,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8755,6 +9365,11 @@
       <c r="L124" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -8802,7 +9417,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8823,6 +9438,11 @@
       <c r="L125" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -8870,7 +9490,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8891,6 +9511,11 @@
       <c r="L126" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -8938,7 +9563,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8959,6 +9584,11 @@
       <c r="L127" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9006,7 +9636,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9027,6 +9657,11 @@
       <c r="L128" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9074,7 +9709,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9095,6 +9730,11 @@
       <c r="L129" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9142,7 +9782,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9163,6 +9803,11 @@
       <c r="L130" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9210,7 +9855,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9231,6 +9876,11 @@
       <c r="L131" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9278,7 +9928,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9299,6 +9949,11 @@
       <c r="L132" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -9346,7 +10001,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9367,6 +10022,11 @@
       <c r="L133" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -9414,7 +10074,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9435,6 +10095,11 @@
       <c r="L134" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -9482,7 +10147,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9503,6 +10168,11 @@
       <c r="L135" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -9550,7 +10220,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9571,6 +10241,11 @@
       <c r="L136" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -9618,7 +10293,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9639,6 +10314,11 @@
       <c r="L137" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -9686,7 +10366,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9707,6 +10387,11 @@
       <c r="L138" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -9754,7 +10439,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9775,6 +10460,11 @@
       <c r="L139" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -9822,7 +10512,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -9843,6 +10533,11 @@
       <c r="L140" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -9890,7 +10585,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9911,6 +10606,11 @@
       <c r="L141" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -9958,7 +10658,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9979,6 +10679,11 @@
       <c r="L142" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -10026,7 +10731,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10047,6 +10752,11 @@
       <c r="L143" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -10094,7 +10804,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10115,6 +10825,11 @@
       <c r="L144" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -10162,7 +10877,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10183,6 +10898,11 @@
       <c r="L145" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -10230,7 +10950,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10251,6 +10971,11 @@
       <c r="L146" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -10298,7 +11023,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10319,6 +11044,11 @@
       <c r="L147" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -10366,7 +11096,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10387,6 +11117,11 @@
       <c r="L148" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -10429,7 +11164,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10450,6 +11185,11 @@
       <c r="L149" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -10487,7 +11227,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10508,6 +11248,11 @@
       <c r="L150" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -10555,7 +11300,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10576,6 +11321,11 @@
       <c r="L151" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -10623,7 +11373,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -10644,6 +11394,11 @@
       <c r="L152" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -10691,7 +11446,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10712,6 +11467,11 @@
       <c r="L153" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -10759,7 +11519,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10780,6 +11540,11 @@
       <c r="L154" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -10827,7 +11592,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10848,6 +11613,11 @@
       <c r="L155" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -10895,7 +11665,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10916,6 +11686,11 @@
       <c r="L156" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -10963,7 +11738,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -10984,6 +11759,11 @@
       <c r="L157" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -11031,7 +11811,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11052,6 +11832,11 @@
       <c r="L158" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -11099,7 +11884,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11120,6 +11905,11 @@
       <c r="L159" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -11167,7 +11957,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11188,6 +11978,11 @@
       <c r="L160" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -11235,7 +12030,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11256,6 +12051,11 @@
       <c r="L161" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -11303,7 +12103,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -11324,6 +12124,11 @@
       <c r="L162" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -11371,7 +12176,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11392,6 +12197,11 @@
       <c r="L163" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -11439,7 +12249,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -11460,6 +12270,11 @@
       <c r="L164" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -11507,7 +12322,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>15/03/2020 00:00</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -11528,6 +12343,11 @@
       <c r="L165" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -11575,7 +12395,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -11596,6 +12416,11 @@
       <c r="L166" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -11643,7 +12468,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11664,6 +12489,11 @@
       <c r="L167" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -11711,7 +12541,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -11732,6 +12562,11 @@
       <c r="L168" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -11779,7 +12614,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -11800,6 +12635,11 @@
       <c r="L169" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -11847,7 +12687,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -11868,6 +12708,11 @@
       <c r="L170" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -11915,7 +12760,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11936,6 +12781,11 @@
       <c r="L171" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -11983,7 +12833,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12004,6 +12854,11 @@
       <c r="L172" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -12051,7 +12906,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12072,6 +12927,11 @@
       <c r="L173" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -12119,7 +12979,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12140,6 +13000,11 @@
       <c r="L174" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -12187,7 +13052,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12208,6 +13073,11 @@
       <c r="L175" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -12255,7 +13125,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -12276,6 +13146,11 @@
       <c r="L176" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -12323,7 +13198,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -12344,6 +13219,11 @@
       <c r="L177" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -12391,7 +13271,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -12412,6 +13292,11 @@
       <c r="L178" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -12459,7 +13344,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -12480,6 +13365,11 @@
       <c r="L179" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -12527,7 +13417,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12548,6 +13438,11 @@
       <c r="L180" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -12595,7 +13490,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12616,6 +13511,11 @@
       <c r="L181" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -12663,7 +13563,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12684,6 +13584,11 @@
       <c r="L182" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -12731,7 +13636,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -12752,6 +13657,11 @@
       <c r="L183" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -12799,7 +13709,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12820,6 +13730,11 @@
       <c r="L184" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -12867,7 +13782,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12888,6 +13803,11 @@
       <c r="L185" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -12930,7 +13850,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -12951,6 +13871,11 @@
       <c r="L186" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -12988,7 +13913,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13009,6 +13934,11 @@
       <c r="L187" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -13056,7 +13986,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13077,6 +14007,11 @@
       <c r="L188" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -13124,7 +14059,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13145,6 +14080,11 @@
       <c r="L189" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -13192,7 +14132,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -13213,6 +14153,11 @@
       <c r="L190" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -13260,7 +14205,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -13281,6 +14226,11 @@
       <c r="L191" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -13328,7 +14278,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -13349,6 +14299,11 @@
       <c r="L192" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -13396,7 +14351,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -13417,6 +14372,11 @@
       <c r="L193" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -13464,7 +14424,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -13485,6 +14445,11 @@
       <c r="L194" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -13532,7 +14497,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13553,6 +14518,11 @@
       <c r="L195" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -13600,7 +14570,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -13621,6 +14591,11 @@
       <c r="L196" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -13668,7 +14643,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -13689,6 +14664,11 @@
       <c r="L197" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -13736,7 +14716,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -13757,6 +14737,11 @@
       <c r="L198" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -13804,7 +14789,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -13825,6 +14810,11 @@
       <c r="L199" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -13872,7 +14862,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13893,6 +14883,11 @@
       <c r="L200" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -13940,7 +14935,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13961,6 +14956,11 @@
       <c r="L201" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -14008,7 +15008,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14029,6 +15029,11 @@
       <c r="L202" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -14076,7 +15081,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14097,6 +15102,11 @@
       <c r="L203" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -14144,7 +15154,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14165,6 +15175,11 @@
       <c r="L204" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -14212,7 +15227,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14233,6 +15248,11 @@
       <c r="L205" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -14280,7 +15300,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14301,6 +15321,11 @@
       <c r="L206" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -14348,7 +15373,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -14369,6 +15394,11 @@
       <c r="L207" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -14416,7 +15446,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14437,6 +15467,11 @@
       <c r="L208" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -14484,7 +15519,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -14505,6 +15540,11 @@
       <c r="L209" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -14552,7 +15592,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -14573,6 +15613,11 @@
       <c r="L210" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -14620,7 +15665,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -14641,6 +15686,11 @@
       <c r="L211" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -14688,7 +15738,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -14709,6 +15759,11 @@
       <c r="L212" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -14751,7 +15806,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -14772,6 +15827,11 @@
       <c r="L213" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -14809,7 +15869,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -14830,6 +15890,11 @@
       <c r="L214" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -14877,7 +15942,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -14898,6 +15963,11 @@
       <c r="L215" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -14945,7 +16015,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -14966,6 +16036,11 @@
       <c r="L216" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -15013,7 +16088,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15034,6 +16109,11 @@
       <c r="L217" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -15081,7 +16161,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15102,6 +16182,11 @@
       <c r="L218" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -15149,7 +16234,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15170,6 +16255,11 @@
       <c r="L219" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -15217,7 +16307,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15238,6 +16328,11 @@
       <c r="L220" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -15285,7 +16380,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -15306,6 +16401,11 @@
       <c r="L221" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -15353,7 +16453,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -15374,6 +16474,11 @@
       <c r="L222" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -15421,7 +16526,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -15442,6 +16547,11 @@
       <c r="L223" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -15489,7 +16599,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -15510,6 +16620,11 @@
       <c r="L224" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -15557,7 +16672,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -15578,6 +16693,11 @@
       <c r="L225" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -15625,7 +16745,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -15646,6 +16766,11 @@
       <c r="L226" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -15693,7 +16818,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -15714,6 +16839,11 @@
       <c r="L227" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -15761,7 +16891,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -15782,6 +16912,11 @@
       <c r="L228" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -15829,7 +16964,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -15850,6 +16985,11 @@
       <c r="L229" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -15892,7 +17032,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -15913,6 +17053,11 @@
       <c r="L230" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -15950,7 +17095,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -15971,6 +17116,11 @@
       <c r="L231" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -16018,7 +17168,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -16039,6 +17189,11 @@
       <c r="L232" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -16086,7 +17241,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16107,6 +17262,11 @@
       <c r="L233" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -16154,7 +17314,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16175,6 +17335,11 @@
       <c r="L234" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16222,7 +17387,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -16243,6 +17408,11 @@
       <c r="L235" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -16290,7 +17460,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -16311,6 +17481,11 @@
       <c r="L236" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -16358,7 +17533,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -16379,6 +17554,11 @@
       <c r="L237" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -16421,7 +17601,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -16442,6 +17622,11 @@
       <c r="L238" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -16479,7 +17664,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -16500,6 +17685,11 @@
       <c r="L239" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -16547,7 +17737,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -16568,6 +17758,11 @@
       <c r="L240" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -16615,7 +17810,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -16636,6 +17831,11 @@
       <c r="L241" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -16683,7 +17883,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -16704,6 +17904,11 @@
       <c r="L242" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -16751,7 +17956,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -16772,6 +17977,11 @@
       <c r="L243" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -16819,7 +18029,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -16840,6 +18050,11 @@
       <c r="L244" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -16887,7 +18102,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -16908,6 +18123,11 @@
       <c r="L245" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -16955,7 +18175,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -16976,6 +18196,11 @@
       <c r="L246" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -17023,7 +18248,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17044,6 +18269,11 @@
       <c r="L247" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -17091,7 +18321,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -17112,6 +18342,11 @@
       <c r="L248" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -17159,7 +18394,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -17180,6 +18415,11 @@
       <c r="L249" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -17227,7 +18467,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -17248,6 +18488,11 @@
       <c r="L250" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -17295,7 +18540,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -17316,6 +18561,11 @@
       <c r="L251" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -17363,7 +18613,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -17384,6 +18634,11 @@
       <c r="L252" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -17431,7 +18686,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -17452,6 +18707,11 @@
       <c r="L253" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -17499,7 +18759,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -17520,6 +18780,11 @@
       <c r="L254" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -17567,7 +18832,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -17588,6 +18853,11 @@
       <c r="L255" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
@@ -17635,7 +18905,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -17656,6 +18926,11 @@
       <c r="L256" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -17703,7 +18978,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -17724,6 +18999,11 @@
       <c r="L257" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -17771,7 +19051,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -17792,6 +19072,11 @@
       <c r="L258" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -17839,7 +19124,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -17860,6 +19145,11 @@
       <c r="L259" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -17907,7 +19197,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -17928,6 +19218,11 @@
       <c r="L260" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -17975,7 +19270,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -17996,6 +19291,11 @@
       <c r="L261" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -18043,7 +19343,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18064,6 +19364,11 @@
       <c r="L262" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -18111,7 +19416,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18132,6 +19437,11 @@
       <c r="L263" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -18179,7 +19489,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -18200,6 +19510,11 @@
       <c r="L264" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -18247,7 +19562,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -18268,6 +19583,11 @@
       <c r="L265" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -18315,7 +19635,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -18336,6 +19656,11 @@
       <c r="L266" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -18383,7 +19708,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -18404,6 +19729,11 @@
       <c r="L267" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -18451,7 +19781,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -18472,6 +19802,11 @@
       <c r="L268" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -18519,7 +19854,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -18540,6 +19875,11 @@
       <c r="L269" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -18582,7 +19922,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -18603,6 +19943,11 @@
       <c r="L270" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -18640,7 +19985,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -18661,6 +20006,11 @@
       <c r="L271" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -18708,7 +20058,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -18729,6 +20079,11 @@
       <c r="L272" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -18776,7 +20131,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -18797,6 +20152,11 @@
       <c r="L273" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -18844,7 +20204,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -18865,6 +20225,11 @@
       <c r="L274" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -18912,7 +20277,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -18933,6 +20298,11 @@
       <c r="L275" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -18980,7 +20350,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -19001,6 +20371,11 @@
       <c r="L276" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -19048,7 +20423,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -19069,6 +20444,11 @@
       <c r="L277" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -19116,7 +20496,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -19137,6 +20517,11 @@
       <c r="L278" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -19184,7 +20569,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -19205,6 +20590,11 @@
       <c r="L279" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -19252,7 +20642,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -19273,6 +20663,11 @@
       <c r="L280" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -19320,7 +20715,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19341,6 +20736,11 @@
       <c r="L281" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -19388,7 +20788,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -19409,6 +20809,11 @@
       <c r="L282" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -19456,7 +20861,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -19477,6 +20882,11 @@
       <c r="L283" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -19524,7 +20934,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -19545,6 +20955,11 @@
       <c r="L284" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -19592,7 +21007,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -19613,6 +21028,11 @@
       <c r="L285" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -19660,7 +21080,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -19681,6 +21101,11 @@
       <c r="L286" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -19728,7 +21153,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -19749,6 +21174,11 @@
       <c r="L287" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -19796,7 +21226,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -19817,6 +21247,11 @@
       <c r="L288" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -19864,7 +21299,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -19885,6 +21320,11 @@
       <c r="L289" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -19932,7 +21372,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -19953,6 +21393,11 @@
       <c r="L290" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -20000,7 +21445,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20021,6 +21466,11 @@
       <c r="L291" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -20068,7 +21518,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -20089,6 +21539,11 @@
       <c r="L292" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -20136,7 +21591,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -20157,6 +21612,11 @@
       <c r="L293" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -20204,7 +21664,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -20225,6 +21685,11 @@
       <c r="L294" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -20272,7 +21737,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -20293,6 +21758,11 @@
       <c r="L295" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -20335,7 +21805,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -20356,6 +21826,11 @@
       <c r="L296" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -20393,7 +21868,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -20414,6 +21889,11 @@
       <c r="L297" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -20461,7 +21941,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -20482,6 +21962,11 @@
       <c r="L298" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -20529,7 +22014,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -20550,6 +22035,11 @@
       <c r="L299" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -20597,7 +22087,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -20618,6 +22108,11 @@
       <c r="L300" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -20665,7 +22160,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -20686,6 +22181,11 @@
       <c r="L301" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -20733,7 +22233,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -20754,6 +22254,11 @@
       <c r="L302" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -20801,7 +22306,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -20822,6 +22327,11 @@
       <c r="L303" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -20869,7 +22379,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -20890,6 +22400,11 @@
       <c r="L304" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -20937,7 +22452,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -20958,6 +22473,11 @@
       <c r="L305" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -21000,7 +22520,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -21021,6 +22541,11 @@
       <c r="L306" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -21058,7 +22583,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -21079,6 +22604,11 @@
       <c r="L307" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -21126,7 +22656,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -21147,6 +22677,11 @@
       <c r="L308" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -21194,7 +22729,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -21215,6 +22750,11 @@
       <c r="L309" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -21262,7 +22802,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -21283,6 +22823,11 @@
       <c r="L310" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -21330,7 +22875,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -21351,6 +22896,11 @@
       <c r="L311" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -21398,7 +22948,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -21419,6 +22969,11 @@
       <c r="L312" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -21466,7 +23021,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -21487,6 +23042,11 @@
       <c r="L313" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -21534,7 +23094,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -21555,6 +23115,11 @@
       <c r="L314" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -21602,7 +23167,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -21623,6 +23188,11 @@
       <c r="L315" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -21670,7 +23240,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -21691,6 +23261,11 @@
       <c r="L316" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -21738,7 +23313,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -21759,6 +23334,11 @@
       <c r="L317" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -21806,7 +23386,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -21827,6 +23407,11 @@
       <c r="L318" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -21874,7 +23459,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -21895,6 +23480,11 @@
       <c r="L319" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -21942,7 +23532,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -21963,6 +23553,11 @@
       <c r="L320" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -22010,7 +23605,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -22031,6 +23626,11 @@
       <c r="L321" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -22078,7 +23678,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -22099,6 +23699,11 @@
       <c r="L322" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -22146,7 +23751,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -22167,6 +23772,11 @@
       <c r="L323" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -22209,7 +23819,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -22230,6 +23840,11 @@
       <c r="L324" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -22267,7 +23882,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -22288,6 +23903,11 @@
       <c r="L325" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -22335,7 +23955,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -22356,6 +23976,11 @@
       <c r="L326" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -22403,7 +24028,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -22424,6 +24049,11 @@
       <c r="L327" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -22471,7 +24101,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -22492,6 +24122,11 @@
       <c r="L328" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -22539,7 +24174,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -22560,6 +24195,11 @@
       <c r="L329" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -22607,7 +24247,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -22628,6 +24268,11 @@
       <c r="L330" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -22675,7 +24320,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -22696,6 +24341,11 @@
       <c r="L331" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -22743,7 +24393,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -22764,6 +24414,11 @@
       <c r="L332" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -22811,7 +24466,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -22832,6 +24487,11 @@
       <c r="L333" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -22879,7 +24539,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -22900,6 +24560,11 @@
       <c r="L334" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -22947,7 +24612,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -22968,6 +24633,11 @@
       <c r="L335" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -23015,7 +24685,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -23036,6 +24706,11 @@
       <c r="L336" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -23083,7 +24758,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23104,6 +24779,11 @@
       <c r="L337" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -23151,7 +24831,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -23172,6 +24852,11 @@
       <c r="L338" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -23219,7 +24904,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23240,6 +24925,11 @@
       <c r="L339" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -23287,7 +24977,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -23308,6 +24998,11 @@
       <c r="L340" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -23350,7 +25045,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -23371,6 +25066,11 @@
       <c r="L341" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -23408,7 +25108,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -23429,6 +25129,11 @@
       <c r="L342" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -23476,7 +25181,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -23497,6 +25202,11 @@
       <c r="L343" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -23544,7 +25254,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -23565,6 +25275,11 @@
       <c r="L344" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -23612,7 +25327,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -23633,6 +25348,11 @@
       <c r="L345" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -23680,7 +25400,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -23701,6 +25421,11 @@
       <c r="L346" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -23748,7 +25473,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -23769,6 +25494,11 @@
       <c r="L347" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -23816,7 +25546,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -23837,6 +25567,11 @@
       <c r="L348" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -23884,7 +25619,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -23905,6 +25640,11 @@
       <c r="L349" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -23952,7 +25692,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -23973,6 +25713,11 @@
       <c r="L350" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -24020,7 +25765,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -24041,6 +25786,11 @@
       <c r="L351" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -24088,7 +25838,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -24109,6 +25859,11 @@
       <c r="L352" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -24156,7 +25911,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -24177,6 +25932,11 @@
       <c r="L353" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
@@ -24224,7 +25984,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -24245,6 +26005,11 @@
       <c r="L354" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -24292,7 +26057,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -24313,6 +26078,11 @@
       <c r="L355" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -24360,7 +26130,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -24381,6 +26151,11 @@
       <c r="L356" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -24428,7 +26203,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -24449,6 +26224,11 @@
       <c r="L357" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -24496,7 +26276,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -24517,6 +26297,11 @@
       <c r="L358" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -24559,7 +26344,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -24580,6 +26365,11 @@
       <c r="L359" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -24617,7 +26407,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -24638,6 +26428,11 @@
       <c r="L360" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -24685,7 +26480,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -24706,6 +26501,11 @@
       <c r="L361" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -24753,7 +26553,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -24774,6 +26574,11 @@
       <c r="L362" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -24821,7 +26626,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -24842,6 +26647,11 @@
       <c r="L363" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -24889,7 +26699,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -24910,6 +26720,11 @@
       <c r="L364" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -24952,7 +26767,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -24973,6 +26788,11 @@
       <c r="L365" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -25010,7 +26830,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -25031,6 +26851,11 @@
       <c r="L366" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -25078,7 +26903,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -25099,6 +26924,11 @@
       <c r="L367" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -25146,7 +26976,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -25167,6 +26997,11 @@
       <c r="L368" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -25214,7 +27049,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -25235,6 +27070,11 @@
       <c r="L369" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -25282,7 +27122,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -25303,6 +27143,11 @@
       <c r="L370" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -25350,7 +27195,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>15/03/2021 00:00</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25371,6 +27216,11 @@
       <c r="L371" t="inlineStr">
         <is>
           <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">

--- a/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
@@ -466,6 +466,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_397</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -539,6 +544,11 @@
           <t>6132</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_738</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -612,6 +622,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_552</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -685,6 +700,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_GR6</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -758,6 +778,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_518</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -831,6 +856,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_90</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -904,6 +934,11 @@
           <t>6212</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_119</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -977,6 +1012,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_106</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1050,6 +1090,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_629</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1123,6 +1168,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_798</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1196,6 +1246,11 @@
           <t>6421</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_13</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1269,6 +1324,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_637</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1342,6 +1402,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_69</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1415,6 +1480,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_698</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1488,6 +1558,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_314</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1561,6 +1636,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_651</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1634,6 +1714,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_733</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1707,6 +1792,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_562</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1780,6 +1870,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_494</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1853,6 +1948,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_157</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1926,6 +2026,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_783</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -1999,6 +2104,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_443</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2072,6 +2182,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_389</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2145,6 +2260,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_827</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2218,6 +2338,11 @@
           <t>6511</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_768</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2291,6 +2416,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_528</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2364,6 +2494,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_163</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2437,6 +2572,11 @@
           <t>6132</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_285</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2510,6 +2650,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_127</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2583,6 +2728,11 @@
           <t>6132</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_740</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2656,6 +2806,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_822</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2729,6 +2884,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_72</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2802,6 +2962,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_564</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2875,6 +3040,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_49</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -2948,6 +3118,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_35</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3021,6 +3196,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_869</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3094,6 +3274,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_169</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3167,6 +3352,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_861</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3240,6 +3430,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_161</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3313,6 +3508,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_297</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3386,6 +3586,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_561</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3459,6 +3664,11 @@
           <t>6212</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_570</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3532,6 +3742,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_633</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3605,6 +3820,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_222</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3678,6 +3898,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_704</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3751,6 +3976,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_582</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3824,6 +4054,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_716</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3897,6 +4132,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_26</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -3970,6 +4210,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_446</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4043,6 +4288,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_742</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4116,6 +4366,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_763</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4189,6 +4444,11 @@
           <t>6162</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_761</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4262,6 +4522,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_432</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4335,6 +4600,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_535</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4408,6 +4678,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_842</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4481,6 +4756,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_34</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4554,6 +4834,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_743</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4627,6 +4912,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_367</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4700,6 +4990,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_12</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4773,6 +5068,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_151</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4846,6 +5146,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_854</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4919,6 +5224,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_747</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -4992,6 +5302,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_781</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5065,6 +5380,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_104</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5138,6 +5458,11 @@
           <t>6214</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_607</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5211,6 +5536,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_24</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5284,6 +5614,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_801</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5357,6 +5692,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_604</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5430,6 +5770,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_539</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5503,6 +5848,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_712</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5576,6 +5926,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_726</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5649,6 +6004,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_770</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5722,6 +6082,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_724</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5795,6 +6160,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_84</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5868,6 +6238,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_22</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -5941,6 +6316,11 @@
           <t>6211</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_868</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6009,6 +6389,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_758</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6072,6 +6457,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_81</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6145,6 +6535,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_363</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6218,6 +6613,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_721</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6291,6 +6691,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_686</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6364,6 +6769,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_105</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6437,6 +6847,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_529</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6510,6 +6925,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_390</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6583,6 +7003,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_53</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6656,6 +7081,11 @@
           <t>6211</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_760</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6729,6 +7159,11 @@
           <t>6212</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_819</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6802,6 +7237,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_73</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6875,6 +7315,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_534</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -6948,6 +7393,11 @@
           <t>6132</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_271</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7021,6 +7471,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_392</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7094,6 +7549,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_209</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7167,6 +7627,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_98</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7235,6 +7700,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_373</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7298,6 +7768,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_782</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7371,6 +7846,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_370</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7444,6 +7924,11 @@
           <t>6421</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_55</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7517,6 +8002,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_786</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7590,6 +8080,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_575</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7663,6 +8158,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_769</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7736,6 +8236,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_458</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7809,6 +8314,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_181</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7882,6 +8392,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_771</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -7955,6 +8470,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_97</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8028,6 +8548,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_573</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8101,6 +8626,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_729</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8174,6 +8704,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_789</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8247,6 +8782,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_299</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8320,6 +8860,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_438</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8393,6 +8938,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_688</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8466,6 +9016,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_855</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8539,6 +9094,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_587</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8612,6 +9172,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_433</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8685,6 +9250,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_470</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8758,6 +9328,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_488</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8831,6 +9406,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_517</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8904,6 +9484,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_525</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -8977,6 +9562,11 @@
           <t>6132</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_322</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9050,6 +9640,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_87</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9123,6 +9718,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_874</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9196,6 +9796,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_316</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9269,6 +9874,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_811</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9342,6 +9952,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_537</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9415,6 +10030,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_179</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9488,6 +10108,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_821</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9561,6 +10186,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_553</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9634,6 +10264,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_818</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9707,6 +10342,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_548</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9780,6 +10420,11 @@
           <t>6511</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_596</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9853,6 +10498,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_876</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9926,6 +10576,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_808</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -9999,6 +10654,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_165</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10072,6 +10732,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_341</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10145,6 +10810,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_GR4</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10218,6 +10888,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_439</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10291,6 +10966,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_690</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10364,6 +11044,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_129</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10437,6 +11122,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_627</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10510,6 +11200,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_194</t>
+        </is>
+      </c>
       <c r="H140" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10583,6 +11278,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_788</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10656,6 +11356,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_600</t>
+        </is>
+      </c>
       <c r="H142" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10729,6 +11434,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_878</t>
+        </is>
+      </c>
       <c r="H143" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10802,6 +11512,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_606</t>
+        </is>
+      </c>
       <c r="H144" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10875,6 +11590,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_608</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -10948,6 +11668,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_394</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11021,6 +11746,11 @@
           <t>6211</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_595</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11094,6 +11824,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_150</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11162,6 +11897,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_286</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11225,6 +11965,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_610</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11298,6 +12043,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_149</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11371,6 +12121,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_891</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11444,6 +12199,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_765</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11517,6 +12277,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_851</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11590,6 +12355,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_602</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11663,6 +12433,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_880</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11736,6 +12511,11 @@
           <t>6132</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_843</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11809,6 +12589,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_437</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11882,6 +12667,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_772</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -11955,6 +12745,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_653</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -12028,6 +12823,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_499</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -12101,6 +12901,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_23</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -12174,6 +12979,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_205</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -12247,6 +13057,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_306</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -12320,6 +13135,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_111</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr">
         <is>
           <t>2020-03-15</t>
@@ -12393,6 +13213,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_536</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12466,6 +13291,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_475</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12539,6 +13369,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_595</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12612,6 +13447,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_432</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12685,6 +13525,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_747</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12758,6 +13603,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_712</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12831,6 +13681,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_788</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12904,6 +13759,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_437</t>
+        </is>
+      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -12977,6 +13837,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_760</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13050,6 +13915,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_428</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13123,6 +13993,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_458</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13196,6 +14071,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_GR4</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13269,6 +14149,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_447</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13342,6 +14227,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_433</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13415,6 +14305,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_600</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13488,6 +14383,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_550</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13561,6 +14461,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_351</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13634,6 +14539,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_765</t>
+        </is>
+      </c>
       <c r="H183" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13707,6 +14617,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_770</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13780,6 +14695,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_Ø18</t>
+        </is>
+      </c>
       <c r="H185" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13848,6 +14768,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_779</t>
+        </is>
+      </c>
       <c r="H186" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13911,6 +14836,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_408</t>
+        </is>
+      </c>
       <c r="H187" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -13984,6 +14914,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_706</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14057,6 +14992,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_724</t>
+        </is>
+      </c>
       <c r="H189" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14130,6 +15070,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_490</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14203,6 +15148,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_468</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14276,6 +15226,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_769</t>
+        </is>
+      </c>
       <c r="H192" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14349,6 +15304,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_643</t>
+        </is>
+      </c>
       <c r="H193" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14422,6 +15382,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_729</t>
+        </is>
+      </c>
       <c r="H194" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14495,6 +15460,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_499</t>
+        </is>
+      </c>
       <c r="H195" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14568,6 +15538,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_435</t>
+        </is>
+      </c>
       <c r="H196" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14641,6 +15616,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_439</t>
+        </is>
+      </c>
       <c r="H197" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14714,6 +15694,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_709</t>
+        </is>
+      </c>
       <c r="H198" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14787,6 +15772,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_489</t>
+        </is>
+      </c>
       <c r="H199" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14860,6 +15850,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_419</t>
+        </is>
+      </c>
       <c r="H200" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -14933,6 +15928,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_518</t>
+        </is>
+      </c>
       <c r="H201" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15006,6 +16006,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_768</t>
+        </is>
+      </c>
       <c r="H202" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15079,6 +16084,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_798</t>
+        </is>
+      </c>
       <c r="H203" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15152,6 +16162,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_761</t>
+        </is>
+      </c>
       <c r="H204" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15225,6 +16240,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_750</t>
+        </is>
+      </c>
       <c r="H205" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15298,6 +16318,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_434</t>
+        </is>
+      </c>
       <c r="H206" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15371,6 +16396,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_390</t>
+        </is>
+      </c>
       <c r="H207" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15444,6 +16474,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_721</t>
+        </is>
+      </c>
       <c r="H208" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15517,6 +16552,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_790</t>
+        </is>
+      </c>
       <c r="H209" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15590,6 +16630,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_411</t>
+        </is>
+      </c>
       <c r="H210" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15663,6 +16708,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_789</t>
+        </is>
+      </c>
       <c r="H211" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15736,6 +16786,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_FR2</t>
+        </is>
+      </c>
       <c r="H212" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15804,6 +16859,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_742</t>
+        </is>
+      </c>
       <c r="H213" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15867,6 +16927,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_317</t>
+        </is>
+      </c>
       <c r="H214" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -15940,6 +17005,11 @@
           <t>6818</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_573</t>
+        </is>
+      </c>
       <c r="H215" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16013,6 +17083,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_731</t>
+        </is>
+      </c>
       <c r="H216" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16086,6 +17161,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_783</t>
+        </is>
+      </c>
       <c r="H217" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16159,6 +17239,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_535</t>
+        </is>
+      </c>
       <c r="H218" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16232,6 +17317,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_587</t>
+        </is>
+      </c>
       <c r="H219" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16305,6 +17395,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_716</t>
+        </is>
+      </c>
       <c r="H220" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16378,6 +17473,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_446</t>
+        </is>
+      </c>
       <c r="H221" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16451,6 +17551,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_425</t>
+        </is>
+      </c>
       <c r="H222" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16524,6 +17629,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_733</t>
+        </is>
+      </c>
       <c r="H223" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16597,6 +17707,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_777</t>
+        </is>
+      </c>
       <c r="H224" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16670,6 +17785,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_704</t>
+        </is>
+      </c>
       <c r="H225" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16743,6 +17863,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_585</t>
+        </is>
+      </c>
       <c r="H226" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16816,6 +17941,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_726</t>
+        </is>
+      </c>
       <c r="H227" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16889,6 +18019,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_739</t>
+        </is>
+      </c>
       <c r="H228" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -16962,6 +18097,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_442</t>
+        </is>
+      </c>
       <c r="H229" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17030,6 +18170,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_420</t>
+        </is>
+      </c>
       <c r="H230" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17093,6 +18238,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_392</t>
+        </is>
+      </c>
       <c r="H231" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17166,6 +18316,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_561</t>
+        </is>
+      </c>
       <c r="H232" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17239,6 +18394,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_342</t>
+        </is>
+      </c>
       <c r="H233" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17312,6 +18472,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_49</t>
+        </is>
+      </c>
       <c r="H234" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17385,6 +18550,11 @@
           <t>6190</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_370</t>
+        </is>
+      </c>
       <c r="H235" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17458,6 +18628,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_564</t>
+        </is>
+      </c>
       <c r="H236" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17531,6 +18706,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_13</t>
+        </is>
+      </c>
       <c r="H237" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17599,6 +18779,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_354</t>
+        </is>
+      </c>
       <c r="H238" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17662,6 +18847,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_306</t>
+        </is>
+      </c>
       <c r="H239" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17735,6 +18925,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_383</t>
+        </is>
+      </c>
       <c r="H240" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17808,6 +19003,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_12</t>
+        </is>
+      </c>
       <c r="H241" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17881,6 +19081,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_842</t>
+        </is>
+      </c>
       <c r="H242" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -17954,6 +19159,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_694</t>
+        </is>
+      </c>
       <c r="H243" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18027,6 +19237,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_818</t>
+        </is>
+      </c>
       <c r="H244" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18100,6 +19315,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_836</t>
+        </is>
+      </c>
       <c r="H245" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18173,6 +19393,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_680</t>
+        </is>
+      </c>
       <c r="H246" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18246,6 +19471,11 @@
           <t>6711</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_162</t>
+        </is>
+      </c>
       <c r="H247" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18319,6 +19549,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_669</t>
+        </is>
+      </c>
       <c r="H248" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18392,6 +19627,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_887</t>
+        </is>
+      </c>
       <c r="H249" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18465,6 +19705,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_866</t>
+        </is>
+      </c>
       <c r="H250" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18538,6 +19783,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_840</t>
+        </is>
+      </c>
       <c r="H251" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18611,6 +19861,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_608</t>
+        </is>
+      </c>
       <c r="H252" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18684,6 +19939,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_880</t>
+        </is>
+      </c>
       <c r="H253" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18757,6 +20017,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_690</t>
+        </is>
+      </c>
       <c r="H254" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18830,6 +20095,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_525</t>
+        </is>
+      </c>
       <c r="H255" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18903,6 +20173,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_522</t>
+        </is>
+      </c>
       <c r="H256" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -18976,6 +20251,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_192</t>
+        </is>
+      </c>
       <c r="H257" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19049,6 +20329,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_348</t>
+        </is>
+      </c>
       <c r="H258" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19122,6 +20407,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_607</t>
+        </is>
+      </c>
       <c r="H259" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19195,6 +20485,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_651</t>
+        </is>
+      </c>
       <c r="H260" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19268,6 +20563,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_800</t>
+        </is>
+      </c>
       <c r="H261" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19341,6 +20641,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_592</t>
+        </is>
+      </c>
       <c r="H262" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19414,6 +20719,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_819</t>
+        </is>
+      </c>
       <c r="H263" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19487,6 +20797,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_GR1</t>
+        </is>
+      </c>
       <c r="H264" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19560,6 +20875,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_876</t>
+        </is>
+      </c>
       <c r="H265" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19633,6 +20953,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_782</t>
+        </is>
+      </c>
       <c r="H266" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19706,6 +21031,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_146</t>
+        </is>
+      </c>
       <c r="H267" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19779,6 +21109,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_569</t>
+        </is>
+      </c>
       <c r="H268" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19852,6 +21187,11 @@
           <t>6162</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_574</t>
+        </is>
+      </c>
       <c r="H269" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19920,6 +21260,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_552</t>
+        </is>
+      </c>
       <c r="H270" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -19983,6 +21328,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_811</t>
+        </is>
+      </c>
       <c r="H271" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20056,6 +21406,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_584</t>
+        </is>
+      </c>
       <c r="H272" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20129,6 +21484,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_323</t>
+        </is>
+      </c>
       <c r="H273" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20202,6 +21562,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_813</t>
+        </is>
+      </c>
       <c r="H274" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20275,6 +21640,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_596</t>
+        </is>
+      </c>
       <c r="H275" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20348,6 +21718,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_394</t>
+        </is>
+      </c>
       <c r="H276" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20421,6 +21796,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_367</t>
+        </is>
+      </c>
       <c r="H277" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20494,6 +21874,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_786</t>
+        </is>
+      </c>
       <c r="H278" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20567,6 +21952,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_663</t>
+        </is>
+      </c>
       <c r="H279" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20640,6 +22030,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_151</t>
+        </is>
+      </c>
       <c r="H280" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20713,6 +22108,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_888</t>
+        </is>
+      </c>
       <c r="H281" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20786,6 +22186,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_602</t>
+        </is>
+      </c>
       <c r="H282" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20859,6 +22264,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_397</t>
+        </is>
+      </c>
       <c r="H283" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -20932,6 +22342,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_361</t>
+        </is>
+      </c>
       <c r="H284" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21005,6 +22420,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_540</t>
+        </is>
+      </c>
       <c r="H285" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21078,6 +22498,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_534</t>
+        </is>
+      </c>
       <c r="H286" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21151,6 +22576,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_110</t>
+        </is>
+      </c>
       <c r="H287" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21224,6 +22654,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_157</t>
+        </is>
+      </c>
       <c r="H288" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21297,6 +22732,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_189</t>
+        </is>
+      </c>
       <c r="H289" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21370,6 +22810,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_841</t>
+        </is>
+      </c>
       <c r="H290" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21443,6 +22888,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_852</t>
+        </is>
+      </c>
       <c r="H291" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21516,6 +22966,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_373</t>
+        </is>
+      </c>
       <c r="H292" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21589,6 +23044,11 @@
           <t>6711</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_32</t>
+        </is>
+      </c>
       <c r="H293" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21662,6 +23122,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_627</t>
+        </is>
+      </c>
       <c r="H294" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21735,6 +23200,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_859</t>
+        </is>
+      </c>
       <c r="H295" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21803,6 +23273,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_676</t>
+        </is>
+      </c>
       <c r="H296" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21866,6 +23341,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_843</t>
+        </is>
+      </c>
       <c r="H297" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -21939,6 +23419,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_827</t>
+        </is>
+      </c>
       <c r="H298" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22012,6 +23497,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_838</t>
+        </is>
+      </c>
       <c r="H299" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22085,6 +23575,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_570</t>
+        </is>
+      </c>
       <c r="H300" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22158,6 +23653,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_316</t>
+        </is>
+      </c>
       <c r="H301" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22231,6 +23731,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_24</t>
+        </is>
+      </c>
       <c r="H302" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22304,6 +23809,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_757</t>
+        </is>
+      </c>
       <c r="H303" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22377,6 +23887,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_869</t>
+        </is>
+      </c>
       <c r="H304" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22450,6 +23965,11 @@
           <t>6190</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_821</t>
+        </is>
+      </c>
       <c r="H305" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22518,6 +24038,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_658</t>
+        </is>
+      </c>
       <c r="H306" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22581,6 +24106,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_642</t>
+        </is>
+      </c>
       <c r="H307" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22654,6 +24184,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_531</t>
+        </is>
+      </c>
       <c r="H308" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22727,6 +24262,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_64</t>
+        </is>
+      </c>
       <c r="H309" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22800,6 +24340,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_88</t>
+        </is>
+      </c>
       <c r="H310" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22873,6 +24418,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_593</t>
+        </is>
+      </c>
       <c r="H311" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -22946,6 +24496,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_139</t>
+        </is>
+      </c>
       <c r="H312" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23019,6 +24574,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_505</t>
+        </is>
+      </c>
       <c r="H313" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23092,6 +24652,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_34</t>
+        </is>
+      </c>
       <c r="H314" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23165,6 +24730,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_233</t>
+        </is>
+      </c>
       <c r="H315" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23238,6 +24808,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_365</t>
+        </is>
+      </c>
       <c r="H316" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23311,6 +24886,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_673</t>
+        </is>
+      </c>
       <c r="H317" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23384,6 +24964,11 @@
           <t>6514</t>
         </is>
       </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_529</t>
+        </is>
+      </c>
       <c r="H318" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23457,6 +25042,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_363</t>
+        </is>
+      </c>
       <c r="H319" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23530,6 +25120,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_35</t>
+        </is>
+      </c>
       <c r="H320" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23603,6 +25198,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_97</t>
+        </is>
+      </c>
       <c r="H321" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23676,6 +25276,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_69</t>
+        </is>
+      </c>
       <c r="H322" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23749,6 +25354,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_285</t>
+        </is>
+      </c>
       <c r="H323" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23817,6 +25427,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_299</t>
+        </is>
+      </c>
       <c r="H324" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23880,6 +25495,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_297</t>
+        </is>
+      </c>
       <c r="H325" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -23953,6 +25573,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_385</t>
+        </is>
+      </c>
       <c r="H326" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24026,6 +25651,11 @@
           <t>6711</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_72</t>
+        </is>
+      </c>
       <c r="H327" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24099,6 +25729,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_389</t>
+        </is>
+      </c>
       <c r="H328" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24172,6 +25807,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_105</t>
+        </is>
+      </c>
       <c r="H329" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24245,6 +25885,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_286</t>
+        </is>
+      </c>
       <c r="H330" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24318,6 +25963,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_562</t>
+        </is>
+      </c>
       <c r="H331" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24391,6 +26041,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_163</t>
+        </is>
+      </c>
       <c r="H332" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24464,6 +26119,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_73</t>
+        </is>
+      </c>
       <c r="H333" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24537,6 +26197,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_610</t>
+        </is>
+      </c>
       <c r="H334" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24610,6 +26275,11 @@
           <t>6153</t>
         </is>
       </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_582</t>
+        </is>
+      </c>
       <c r="H335" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24683,6 +26353,11 @@
           <t>6711</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_282</t>
+        </is>
+      </c>
       <c r="H336" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24756,6 +26431,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_641</t>
+        </is>
+      </c>
       <c r="H337" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24829,6 +26509,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_606</t>
+        </is>
+      </c>
       <c r="H338" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24902,6 +26587,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_265</t>
+        </is>
+      </c>
       <c r="H339" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -24975,6 +26665,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_629</t>
+        </is>
+      </c>
       <c r="H340" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25043,6 +26738,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_326</t>
+        </is>
+      </c>
       <c r="H341" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25106,6 +26806,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_240</t>
+        </is>
+      </c>
       <c r="H342" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25179,6 +26884,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_590</t>
+        </is>
+      </c>
       <c r="H343" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25252,6 +26962,11 @@
           <t>6190</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_688</t>
+        </is>
+      </c>
       <c r="H344" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25325,6 +27040,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_604</t>
+        </is>
+      </c>
       <c r="H345" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25398,6 +27118,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_161</t>
+        </is>
+      </c>
       <c r="H346" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25471,6 +27196,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_101</t>
+        </is>
+      </c>
       <c r="H347" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25544,6 +27274,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_659</t>
+        </is>
+      </c>
       <c r="H348" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25617,6 +27352,11 @@
           <t>6143</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_81</t>
+        </is>
+      </c>
       <c r="H349" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25690,6 +27430,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_273</t>
+        </is>
+      </c>
       <c r="H350" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25763,6 +27508,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_216</t>
+        </is>
+      </c>
       <c r="H351" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25836,6 +27586,11 @@
           <t>6817</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_398</t>
+        </is>
+      </c>
       <c r="H352" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25909,6 +27664,11 @@
           <t>6911</t>
         </is>
       </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_271</t>
+        </is>
+      </c>
       <c r="H353" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -25982,6 +27742,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_23</t>
+        </is>
+      </c>
       <c r="H354" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26055,6 +27820,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_237</t>
+        </is>
+      </c>
       <c r="H355" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26128,6 +27898,11 @@
           <t>6861</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_106</t>
+        </is>
+      </c>
       <c r="H356" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26201,6 +27976,11 @@
           <t>6711</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_149</t>
+        </is>
+      </c>
       <c r="H357" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26274,6 +28054,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_203</t>
+        </is>
+      </c>
       <c r="H358" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26342,6 +28127,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_26</t>
+        </is>
+      </c>
       <c r="H359" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26405,6 +28195,11 @@
           <t>6713</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_253</t>
+        </is>
+      </c>
       <c r="H360" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26478,6 +28273,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_125</t>
+        </is>
+      </c>
       <c r="H361" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26551,6 +28351,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_205</t>
+        </is>
+      </c>
       <c r="H362" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26624,6 +28429,11 @@
           <t>6841</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_245</t>
+        </is>
+      </c>
       <c r="H363" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26697,6 +28507,11 @@
           <t>6816</t>
         </is>
       </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_181</t>
+        </is>
+      </c>
       <c r="H364" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26765,6 +28580,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_202</t>
+        </is>
+      </c>
       <c r="H365" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26828,6 +28648,11 @@
           <t>6123</t>
         </is>
       </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_104</t>
+        </is>
+      </c>
       <c r="H366" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26901,6 +28726,11 @@
           <t>6711</t>
         </is>
       </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_228</t>
+        </is>
+      </c>
       <c r="H367" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -26974,6 +28804,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_127</t>
+        </is>
+      </c>
       <c r="H368" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -27047,6 +28882,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_178</t>
+        </is>
+      </c>
       <c r="H369" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -27120,6 +28960,11 @@
           <t>6221</t>
         </is>
       </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_198</t>
+        </is>
+      </c>
       <c r="H370" t="inlineStr">
         <is>
           <t>2021-03-15</t>
@@ -27191,6 +29036,11 @@
       <c r="F371" t="inlineStr">
         <is>
           <t>6143</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>kvnet_punktnr_150</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">

--- a/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_3/P04_3_minimal_metadata.xlsx
@@ -450,12 +450,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C2">
-        <v>55.9449</v>
-      </c>
-      <c r="D2">
-        <v>9.448600000000001</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -528,12 +522,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C3">
-        <v>55.1783</v>
-      </c>
-      <c r="D3">
-        <v>10.7591</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -606,12 +594,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C4">
-        <v>55.6308</v>
-      </c>
-      <c r="D4">
-        <v>9.3338</v>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -684,12 +666,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C5">
-        <v>56.3681</v>
-      </c>
-      <c r="D5">
-        <v>10.3064</v>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -762,12 +738,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C6">
-        <v>55.7545</v>
-      </c>
-      <c r="D6">
-        <v>9.781000000000001</v>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -840,12 +810,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C7">
-        <v>57.0143</v>
-      </c>
-      <c r="D7">
-        <v>8.6546</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -918,12 +882,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C8">
-        <v>56.8872</v>
-      </c>
-      <c r="D8">
-        <v>9.6896</v>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -996,12 +954,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C9">
-        <v>56.7009</v>
-      </c>
-      <c r="D9">
-        <v>8.428699999999999</v>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1074,12 +1026,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C10">
-        <v>55.5889</v>
-      </c>
-      <c r="D10">
-        <v>12.2216</v>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1152,12 +1098,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C11">
-        <v>55.3423</v>
-      </c>
-      <c r="D11">
-        <v>12.0909</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1230,12 +1170,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C12">
-        <v>57.4496</v>
-      </c>
-      <c r="D12">
-        <v>10.1667</v>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1308,12 +1242,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C13">
-        <v>55.4689</v>
-      </c>
-      <c r="D13">
-        <v>11.9903</v>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1386,12 +1314,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C14">
-        <v>57.261</v>
-      </c>
-      <c r="D14">
-        <v>10.1607</v>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1464,12 +1386,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C15">
-        <v>55.1901</v>
-      </c>
-      <c r="D15">
-        <v>9.440099999999999</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1542,12 +1458,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C16">
-        <v>56.5694</v>
-      </c>
-      <c r="D16">
-        <v>10.1395</v>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1620,12 +1530,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C17">
-        <v>55.66</v>
-      </c>
-      <c r="D17">
-        <v>11.8935</v>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1698,12 +1602,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C18">
-        <v>55.2454</v>
-      </c>
-      <c r="D18">
-        <v>10.4348</v>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1776,12 +1674,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C19">
-        <v>55.4313</v>
-      </c>
-      <c r="D19">
-        <v>10.6596</v>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1854,12 +1746,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C20">
-        <v>55.4421</v>
-      </c>
-      <c r="D20">
-        <v>8.6683</v>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -1932,12 +1818,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C21">
-        <v>56.8906</v>
-      </c>
-      <c r="D21">
-        <v>9.23</v>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2010,12 +1890,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C22">
-        <v>55.3348</v>
-      </c>
-      <c r="D22">
-        <v>12.3114</v>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2088,12 +1962,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C23">
-        <v>56.1927</v>
-      </c>
-      <c r="D23">
-        <v>10.0187</v>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2166,12 +2034,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C24">
-        <v>55.8183</v>
-      </c>
-      <c r="D24">
-        <v>9.6709</v>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2244,12 +2106,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C25">
-        <v>54.9991</v>
-      </c>
-      <c r="D25">
-        <v>9.8752</v>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2322,12 +2178,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C26">
-        <v>55.2252</v>
-      </c>
-      <c r="D26">
-        <v>11.6417</v>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2400,12 +2250,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C27">
-        <v>55.439</v>
-      </c>
-      <c r="D27">
-        <v>9.8855</v>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2478,12 +2322,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C28">
-        <v>56.6959</v>
-      </c>
-      <c r="D28">
-        <v>10.2576</v>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2556,12 +2394,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C29">
-        <v>56.3745</v>
-      </c>
-      <c r="D29">
-        <v>10.8137</v>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2634,12 +2466,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C30">
-        <v>56.8243</v>
-      </c>
-      <c r="D30">
-        <v>9.6884</v>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2712,12 +2538,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C31">
-        <v>55.1187</v>
-      </c>
-      <c r="D31">
-        <v>10.6466</v>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2790,12 +2610,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C32">
-        <v>55.2536</v>
-      </c>
-      <c r="D32">
-        <v>14.781</v>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2868,12 +2682,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C33">
-        <v>57.2619</v>
-      </c>
-      <c r="D33">
-        <v>10.0447</v>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -2946,12 +2754,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C34">
-        <v>55.4324</v>
-      </c>
-      <c r="D34">
-        <v>10.5497</v>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3024,12 +2826,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C35">
-        <v>57.3215</v>
-      </c>
-      <c r="D35">
-        <v>10.3951</v>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3102,12 +2898,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C36">
-        <v>57.2023</v>
-      </c>
-      <c r="D36">
-        <v>9.5793</v>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3180,12 +2970,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C37">
-        <v>54.8568</v>
-      </c>
-      <c r="D37">
-        <v>11.1808</v>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3258,12 +3042,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C38">
-        <v>56.8219</v>
-      </c>
-      <c r="D38">
-        <v>10.0291</v>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3336,12 +3114,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C39">
-        <v>54.7262</v>
-      </c>
-      <c r="D39">
-        <v>11.3913</v>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3414,12 +3186,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C40">
-        <v>56.8192</v>
-      </c>
-      <c r="D40">
-        <v>10.1466</v>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3492,12 +3258,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C41">
-        <v>56.3156</v>
-      </c>
-      <c r="D41">
-        <v>10.3586</v>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3570,12 +3330,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C42">
-        <v>55.557</v>
-      </c>
-      <c r="D42">
-        <v>10.6681</v>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3648,12 +3402,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C43">
-        <v>55.5</v>
-      </c>
-      <c r="D43">
-        <v>10.33</v>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3726,12 +3474,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C44">
-        <v>55.5945</v>
-      </c>
-      <c r="D44">
-        <v>11.9998</v>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3804,12 +3546,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C45">
-        <v>56.5728</v>
-      </c>
-      <c r="D45">
-        <v>8.319900000000001</v>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3882,12 +3618,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C46">
-        <v>55.0036</v>
-      </c>
-      <c r="D46">
-        <v>9.3286</v>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -3960,12 +3690,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C47">
-        <v>55.6651</v>
-      </c>
-      <c r="D47">
-        <v>11.6712</v>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4038,12 +3762,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C48">
-        <v>55.3163</v>
-      </c>
-      <c r="D48">
-        <v>9.331200000000001</v>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4116,12 +3834,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C49">
-        <v>57.2644</v>
-      </c>
-      <c r="D49">
-        <v>9.6968</v>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4194,12 +3906,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C50">
-        <v>55.8535</v>
-      </c>
-      <c r="D50">
-        <v>11.6839</v>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4272,12 +3978,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C51">
-        <v>55.0573</v>
-      </c>
-      <c r="D51">
-        <v>10.5345</v>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4350,12 +4050,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C52">
-        <v>55.3127</v>
-      </c>
-      <c r="D52">
-        <v>9.992900000000001</v>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4428,12 +4122,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C53">
-        <v>55.3728</v>
-      </c>
-      <c r="D53">
-        <v>10.1048</v>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4506,12 +4194,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C54">
-        <v>56.0035</v>
-      </c>
-      <c r="D54">
-        <v>10.1195</v>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4584,12 +4266,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C55">
-        <v>55.5687</v>
-      </c>
-      <c r="D55">
-        <v>9.555899999999999</v>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4662,12 +4338,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C56">
-        <v>54.9285</v>
-      </c>
-      <c r="D56">
-        <v>10.7481</v>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4740,12 +4410,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C57">
-        <v>57.0769</v>
-      </c>
-      <c r="D57">
-        <v>9.4621</v>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4818,12 +4482,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C58">
-        <v>55.057</v>
-      </c>
-      <c r="D58">
-        <v>10.4249</v>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4896,12 +4554,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C59">
-        <v>56.1948</v>
-      </c>
-      <c r="D59">
-        <v>8.210599999999999</v>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -4974,12 +4626,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C60">
-        <v>57.5143</v>
-      </c>
-      <c r="D60">
-        <v>10.1688</v>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5052,12 +4698,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C61">
-        <v>56.9511</v>
-      </c>
-      <c r="D61">
-        <v>9.345499999999999</v>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5130,12 +4770,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C62">
-        <v>54.7243</v>
-      </c>
-      <c r="D62">
-        <v>11.609</v>
-      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5208,12 +4842,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C63">
-        <v>55.1823</v>
-      </c>
-      <c r="D63">
-        <v>10.4296</v>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5286,12 +4914,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C64">
-        <v>55.2721</v>
-      </c>
-      <c r="D64">
-        <v>12.3058</v>
-      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5364,12 +4986,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C65">
-        <v>56.762</v>
-      </c>
-      <c r="D65">
-        <v>8.4278</v>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5442,12 +5058,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C66">
-        <v>55.4207</v>
-      </c>
-      <c r="D66">
-        <v>11.2122</v>
-      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5520,12 +5130,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C67">
-        <v>57.3267</v>
-      </c>
-      <c r="D67">
-        <v>9.813700000000001</v>
-      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5598,12 +5202,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C68">
-        <v>55.2167</v>
-      </c>
-      <c r="D68">
-        <v>12.0814</v>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5676,12 +5274,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C69">
-        <v>55.548</v>
-      </c>
-      <c r="D69">
-        <v>11.3303</v>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5754,12 +5346,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C70">
-        <v>55.4417</v>
-      </c>
-      <c r="D70">
-        <v>9.4428</v>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5832,12 +5418,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C71">
-        <v>55.128</v>
-      </c>
-      <c r="D71">
-        <v>9.109999999999999</v>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5910,12 +5490,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C72">
-        <v>55.367</v>
-      </c>
-      <c r="D72">
-        <v>10.7674</v>
-      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -5988,12 +5562,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C73">
-        <v>55.2922</v>
-      </c>
-      <c r="D73">
-        <v>11.5359</v>
-      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6066,12 +5634,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C74">
-        <v>55.3167</v>
-      </c>
-      <c r="D74">
-        <v>9.1106</v>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6144,12 +5706,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C75">
-        <v>56.826</v>
-      </c>
-      <c r="D75">
-        <v>8.770899999999999</v>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6222,12 +5778,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C76">
-        <v>57.0772</v>
-      </c>
-      <c r="D76">
-        <v>8.653700000000001</v>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6300,12 +5850,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C77">
-        <v>54.9215</v>
-      </c>
-      <c r="D77">
-        <v>11.0757</v>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6378,12 +5922,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C78">
-        <v>55.2478</v>
-      </c>
-      <c r="D78">
-        <v>10.2115</v>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6446,12 +5984,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C79">
-        <v>56.9535</v>
-      </c>
-      <c r="D79">
-        <v>8.770099999999999</v>
-      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6524,12 +6056,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C80">
-        <v>56.0068</v>
-      </c>
-      <c r="D80">
-        <v>8.326700000000001</v>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6602,12 +6128,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C81">
-        <v>55.2538</v>
-      </c>
-      <c r="D81">
-        <v>9.1135</v>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6680,12 +6200,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C82">
-        <v>55.3764</v>
-      </c>
-      <c r="D82">
-        <v>9.884</v>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6758,12 +6272,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C83">
-        <v>56.7614</v>
-      </c>
-      <c r="D83">
-        <v>8.3133</v>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6836,12 +6344,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C84">
-        <v>55.4401</v>
-      </c>
-      <c r="D84">
-        <v>9.774800000000001</v>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6914,12 +6416,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C85">
-        <v>55.8187</v>
-      </c>
-      <c r="D85">
-        <v>9.5588</v>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -6992,12 +6488,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C86">
-        <v>57.1958</v>
-      </c>
-      <c r="D86">
-        <v>10.3904</v>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7070,12 +6560,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C87">
-        <v>55.2514</v>
-      </c>
-      <c r="D87">
-        <v>9.991400000000001</v>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7148,12 +6632,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C88">
-        <v>55.1908</v>
-      </c>
-      <c r="D88">
-        <v>14.9975</v>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7226,12 +6704,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C89">
-        <v>57.2647</v>
-      </c>
-      <c r="D89">
-        <v>9.928699999999999</v>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7304,12 +6776,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C90">
-        <v>55.5665</v>
-      </c>
-      <c r="D90">
-        <v>9.666</v>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7382,12 +6848,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C91">
-        <v>56.4486</v>
-      </c>
-      <c r="D91">
-        <v>9.230600000000001</v>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7460,12 +6920,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C92">
-        <v>56.0068</v>
-      </c>
-      <c r="D92">
-        <v>9.6706</v>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7538,12 +6992,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C93">
-        <v>56.3853</v>
-      </c>
-      <c r="D93">
-        <v>8.5465</v>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7616,12 +7064,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C94">
-        <v>56.6371</v>
-      </c>
-      <c r="D94">
-        <v>8.7719</v>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7694,12 +7136,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C95">
-        <v>56.069</v>
-      </c>
-      <c r="D95">
-        <v>9.7873</v>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7762,12 +7198,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C96">
-        <v>55.2767</v>
-      </c>
-      <c r="D96">
-        <v>12.1963</v>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7840,12 +7270,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C97">
-        <v>56.1319</v>
-      </c>
-      <c r="D97">
-        <v>9.788600000000001</v>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7918,12 +7342,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C98">
-        <v>57.1341</v>
-      </c>
-      <c r="D98">
-        <v>10.2724</v>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -7996,12 +7414,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C99">
-        <v>55.0179</v>
-      </c>
-      <c r="D99">
-        <v>12.3916</v>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8074,12 +7486,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C100">
-        <v>55.4375</v>
-      </c>
-      <c r="D100">
-        <v>10.1066</v>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8152,12 +7558,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C101">
-        <v>55.2276</v>
-      </c>
-      <c r="D101">
-        <v>11.5317</v>
-      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8230,12 +7630,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C102">
-        <v>55.895</v>
-      </c>
-      <c r="D102">
-        <v>12.471</v>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8308,12 +7702,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C103">
-        <v>56.9477</v>
-      </c>
-      <c r="D103">
-        <v>10.0359</v>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8386,12 +7774,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C104">
-        <v>55.2909</v>
-      </c>
-      <c r="D104">
-        <v>11.4255</v>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8464,12 +7846,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C105">
-        <v>56.6375</v>
-      </c>
-      <c r="D105">
-        <v>8.886100000000001</v>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8542,12 +7918,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C106">
-        <v>55.4994</v>
-      </c>
-      <c r="D106">
-        <v>10.2192</v>
-      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8620,12 +7990,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C107">
-        <v>55.2429</v>
-      </c>
-      <c r="D107">
-        <v>10.7616</v>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8698,12 +8062,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C108">
-        <v>55.0901</v>
-      </c>
-      <c r="D108">
-        <v>12.0722</v>
-      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8776,12 +8134,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C109">
-        <v>56.3168</v>
-      </c>
-      <c r="D109">
-        <v>10.2451</v>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8854,12 +8206,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C110">
-        <v>56.0664</v>
-      </c>
-      <c r="D110">
-        <v>10.1246</v>
-      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -8932,12 +8278,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C111">
-        <v>55.252</v>
-      </c>
-      <c r="D111">
-        <v>9.661</v>
-      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9010,12 +8350,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C112">
-        <v>54.7266</v>
-      </c>
-      <c r="D112">
-        <v>11.5004</v>
-      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9088,12 +8422,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C113">
-        <v>55.672</v>
-      </c>
-      <c r="D113">
-        <v>11.3378</v>
-      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9166,12 +8494,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C114">
-        <v>55.9407</v>
-      </c>
-      <c r="D114">
-        <v>10.1213</v>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9244,12 +8566,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C115">
-        <v>55.9741</v>
-      </c>
-      <c r="D115">
-        <v>11.9169</v>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9322,12 +8638,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C116">
-        <v>55.5054</v>
-      </c>
-      <c r="D116">
-        <v>9.000299999999999</v>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9400,12 +8710,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C117">
-        <v>55.7538</v>
-      </c>
-      <c r="D117">
-        <v>9.8925</v>
-      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9478,12 +8782,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C118">
-        <v>55.7552</v>
-      </c>
-      <c r="D118">
-        <v>9.669499999999999</v>
-      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9556,12 +8854,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C119">
-        <v>56.0087</v>
-      </c>
-      <c r="D119">
-        <v>8.8887</v>
-      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9634,12 +8926,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C120">
-        <v>56.8273</v>
-      </c>
-      <c r="D120">
-        <v>8.656000000000001</v>
-      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9712,12 +8998,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C121">
-        <v>54.958</v>
-      </c>
-      <c r="D121">
-        <v>12.2803</v>
-      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9790,12 +9070,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C122">
-        <v>56.434</v>
-      </c>
-      <c r="D122">
-        <v>10.9304</v>
-      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9868,12 +9142,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C123">
-        <v>55.0655</v>
-      </c>
-      <c r="D123">
-        <v>15.1104</v>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -9946,12 +9214,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C124">
-        <v>55.5679</v>
-      </c>
-      <c r="D124">
-        <v>9.333299999999999</v>
-      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10024,12 +9286,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C125">
-        <v>56.8855</v>
-      </c>
-      <c r="D125">
-        <v>9.9193</v>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10102,12 +9358,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C126">
-        <v>55.1907</v>
-      </c>
-      <c r="D126">
-        <v>14.7808</v>
-      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10180,12 +9430,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C127">
-        <v>55.6955</v>
-      </c>
-      <c r="D127">
-        <v>9.334</v>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10258,12 +9502,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C128">
-        <v>55.1278</v>
-      </c>
-      <c r="D128">
-        <v>14.7812</v>
-      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10336,12 +9574,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C129">
-        <v>55.7578</v>
-      </c>
-      <c r="D129">
-        <v>9.446899999999999</v>
-      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10414,12 +9646,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C130">
-        <v>55.4134</v>
-      </c>
-      <c r="D130">
-        <v>11.6543</v>
-      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10492,12 +9718,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C131">
-        <v>54.9609</v>
-      </c>
-      <c r="D131">
-        <v>12.1711</v>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10570,12 +9790,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C132">
-        <v>55.3477</v>
-      </c>
-      <c r="D132">
-        <v>11.8707</v>
-      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10648,12 +9862,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C133">
-        <v>56.6338</v>
-      </c>
-      <c r="D133">
-        <v>10.1428</v>
-      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10726,12 +9934,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C134">
-        <v>55.8193</v>
-      </c>
-      <c r="D134">
-        <v>8.664999999999999</v>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10804,12 +10006,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C135">
-        <v>55.953</v>
-      </c>
-      <c r="D135">
-        <v>10.5521</v>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10882,12 +10078,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C136">
-        <v>56.0674</v>
-      </c>
-      <c r="D136">
-        <v>10.0122</v>
-      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -10960,12 +10150,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C137">
-        <v>55.3155</v>
-      </c>
-      <c r="D137">
-        <v>9.5517</v>
-      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11038,12 +10222,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C138">
-        <v>56.6341</v>
-      </c>
-      <c r="D138">
-        <v>9.913399999999999</v>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11116,12 +10294,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C139">
-        <v>55.4005</v>
-      </c>
-      <c r="D139">
-        <v>12.2063</v>
-      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11194,12 +10366,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C140">
-        <v>56.448</v>
-      </c>
-      <c r="D140">
-        <v>8.545999999999999</v>
-      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11272,12 +10438,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C141">
-        <v>55.1548</v>
-      </c>
-      <c r="D141">
-        <v>11.9667</v>
-      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11350,12 +10510,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C142">
-        <v>55.4183</v>
-      </c>
-      <c r="D142">
-        <v>11.4365</v>
-      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11428,12 +10582,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C143">
-        <v>54.715</v>
-      </c>
-      <c r="D143">
-        <v>11.9376</v>
-      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11506,12 +10654,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C144">
-        <v>55.4854</v>
-      </c>
-      <c r="D144">
-        <v>11.2158</v>
-      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11584,12 +10726,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C145">
-        <v>55.7368</v>
-      </c>
-      <c r="D145">
-        <v>11.2301</v>
-      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11662,12 +10798,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C146">
-        <v>55.9444</v>
-      </c>
-      <c r="D146">
-        <v>9.560600000000001</v>
-      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11740,12 +10870,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C147">
-        <v>55.4766</v>
-      </c>
-      <c r="D147">
-        <v>11.6585</v>
-      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11818,12 +10942,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C148">
-        <v>56.7633</v>
-      </c>
-      <c r="D148">
-        <v>9.000299999999999</v>
-      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11896,12 +11014,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C149">
-        <v>56.3743</v>
-      </c>
-      <c r="D149">
-        <v>10.7004</v>
-      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -11964,12 +11076,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C150">
-        <v>55.6741</v>
-      </c>
-      <c r="D150">
-        <v>11.2263</v>
-      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12042,12 +11148,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C151">
-        <v>56.7627</v>
-      </c>
-      <c r="D151">
-        <v>9.1151</v>
-      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12120,12 +11220,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C152">
-        <v>54.8458</v>
-      </c>
-      <c r="D152">
-        <v>11.7259</v>
-      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12198,12 +11292,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C153">
-        <v>55.3527</v>
-      </c>
-      <c r="D153">
-        <v>11.6502</v>
-      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12276,12 +11364,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C154">
-        <v>54.8548</v>
-      </c>
-      <c r="D154">
-        <v>11.2902</v>
-      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12354,12 +11436,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C155">
-        <v>55.4833</v>
-      </c>
-      <c r="D155">
-        <v>11.3265</v>
-      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12432,12 +11508,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C156">
-        <v>54.5899</v>
-      </c>
-      <c r="D156">
-        <v>11.9257</v>
-      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12510,12 +11580,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C157">
-        <v>54.8658</v>
-      </c>
-      <c r="D157">
-        <v>10.7453</v>
-      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12588,12 +11652,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C158">
-        <v>56.0651</v>
-      </c>
-      <c r="D158">
-        <v>10.2372</v>
-      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12666,12 +11724,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C159">
-        <v>55.2295</v>
-      </c>
-      <c r="D159">
-        <v>11.4248</v>
-      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12744,12 +11796,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C160">
-        <v>55.7228</v>
-      </c>
-      <c r="D160">
-        <v>11.8982</v>
-      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12822,12 +11868,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C161">
-        <v>55.5675</v>
-      </c>
-      <c r="D161">
-        <v>8.5563</v>
-      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12900,12 +11940,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C162">
-        <v>57.3895</v>
-      </c>
-      <c r="D162">
-        <v>9.8154</v>
-      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -12978,12 +12012,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C163">
-        <v>56.3875</v>
-      </c>
-      <c r="D163">
-        <v>8.7735</v>
-      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13056,12 +12084,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C164">
-        <v>56.5042</v>
-      </c>
-      <c r="D164">
-        <v>10.365</v>
-      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13134,12 +12156,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C165">
-        <v>56.8248</v>
-      </c>
-      <c r="D165">
-        <v>8.4268</v>
-      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13212,12 +12228,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C166">
-        <v>55.5675</v>
-      </c>
-      <c r="D166">
-        <v>9.4443</v>
-      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13290,12 +12300,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C167">
-        <v>55.757</v>
-      </c>
-      <c r="D167">
-        <v>9.000299999999999</v>
-      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13368,12 +12372,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C168">
-        <v>55.4766</v>
-      </c>
-      <c r="D168">
-        <v>11.6585</v>
-      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13446,12 +12444,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C169">
-        <v>56.0035</v>
-      </c>
-      <c r="D169">
-        <v>10.1195</v>
-      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13524,12 +12516,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C170">
-        <v>55.1823</v>
-      </c>
-      <c r="D170">
-        <v>10.4296</v>
-      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13602,12 +12588,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C171">
-        <v>55.128</v>
-      </c>
-      <c r="D171">
-        <v>9.109999999999999</v>
-      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13680,12 +12660,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C172">
-        <v>55.1548</v>
-      </c>
-      <c r="D172">
-        <v>11.9667</v>
-      </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13758,12 +12732,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C173">
-        <v>56.0651</v>
-      </c>
-      <c r="D173">
-        <v>10.2372</v>
-      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13836,12 +12804,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C174">
-        <v>55.2514</v>
-      </c>
-      <c r="D174">
-        <v>9.991400000000001</v>
-      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13914,12 +12876,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C175">
-        <v>56.0024</v>
-      </c>
-      <c r="D175">
-        <v>10.2342</v>
-      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -13992,12 +12948,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C176">
-        <v>55.895</v>
-      </c>
-      <c r="D176">
-        <v>12.471</v>
-      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14070,12 +13020,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C177">
-        <v>55.953</v>
-      </c>
-      <c r="D177">
-        <v>10.5521</v>
-      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14148,12 +13092,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C178">
-        <v>55.8577</v>
-      </c>
-      <c r="D178">
-        <v>11.5758</v>
-      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14226,12 +13164,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C179">
-        <v>55.9407</v>
-      </c>
-      <c r="D179">
-        <v>10.1213</v>
-      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14304,12 +13236,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C180">
-        <v>55.4183</v>
-      </c>
-      <c r="D180">
-        <v>11.4365</v>
-      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14382,12 +13308,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C181">
-        <v>55.6933</v>
-      </c>
-      <c r="D181">
-        <v>9.4457</v>
-      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14460,12 +13380,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C182">
-        <v>55.8183</v>
-      </c>
-      <c r="D182">
-        <v>8.33</v>
-      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14538,12 +13452,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C183">
-        <v>55.3527</v>
-      </c>
-      <c r="D183">
-        <v>11.6502</v>
-      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14616,12 +13524,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C184">
-        <v>55.2922</v>
-      </c>
-      <c r="D184">
-        <v>11.5359</v>
-      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14694,12 +13596,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C185">
-        <v>55.2122</v>
-      </c>
-      <c r="D185">
-        <v>9.281599999999999</v>
-      </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14772,12 +13668,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C186">
-        <v>55.3317</v>
-      </c>
-      <c r="D186">
-        <v>12.4219</v>
-      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14840,12 +13730,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C187">
-        <v>56.0083</v>
-      </c>
-      <c r="D187">
-        <v>9.224600000000001</v>
-      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14918,12 +13802,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C188">
-        <v>55.0649</v>
-      </c>
-      <c r="D188">
-        <v>9.219799999999999</v>
-      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -14996,12 +13874,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C189">
-        <v>55.3167</v>
-      </c>
-      <c r="D189">
-        <v>9.1106</v>
-      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15074,12 +13946,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C190">
-        <v>55.5701</v>
-      </c>
-      <c r="D190">
-        <v>8.8895</v>
-      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15152,12 +14018,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C191">
-        <v>55.8433</v>
-      </c>
-      <c r="D191">
-        <v>12.1309</v>
-      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15230,12 +14090,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C192">
-        <v>55.2276</v>
-      </c>
-      <c r="D192">
-        <v>11.5317</v>
-      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15308,12 +14162,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C193">
-        <v>55.5344</v>
-      </c>
-      <c r="D193">
-        <v>11.8843</v>
-      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15386,12 +14234,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C194">
-        <v>55.2429</v>
-      </c>
-      <c r="D194">
-        <v>10.7616</v>
-      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15464,12 +14306,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C195">
-        <v>55.5675</v>
-      </c>
-      <c r="D195">
-        <v>8.5563</v>
-      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15542,12 +14378,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C196">
-        <v>56.0044</v>
-      </c>
-      <c r="D196">
-        <v>10.0137</v>
-      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15620,12 +14450,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C197">
-        <v>56.0674</v>
-      </c>
-      <c r="D197">
-        <v>10.0122</v>
-      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15698,12 +14522,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C198">
-        <v>55.0651</v>
-      </c>
-      <c r="D198">
-        <v>9.1099</v>
-      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15776,12 +14594,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C199">
-        <v>55.5072</v>
-      </c>
-      <c r="D199">
-        <v>8.889200000000001</v>
-      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15854,12 +14666,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C200">
-        <v>56.0713</v>
-      </c>
-      <c r="D200">
-        <v>9.1129</v>
-      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -15932,12 +14738,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C201">
-        <v>55.7545</v>
-      </c>
-      <c r="D201">
-        <v>9.781000000000001</v>
-      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16010,12 +14810,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C202">
-        <v>55.2252</v>
-      </c>
-      <c r="D202">
-        <v>11.6417</v>
-      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16088,12 +14882,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C203">
-        <v>55.3423</v>
-      </c>
-      <c r="D203">
-        <v>12.0909</v>
-      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16166,12 +14954,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C204">
-        <v>55.3728</v>
-      </c>
-      <c r="D204">
-        <v>10.1048</v>
-      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16244,12 +15026,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C205">
-        <v>55.1219</v>
-      </c>
-      <c r="D205">
-        <v>10.2078</v>
-      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16322,12 +15098,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C206">
-        <v>55.9416</v>
-      </c>
-      <c r="D206">
-        <v>10.0089</v>
-      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16400,12 +15170,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C207">
-        <v>55.8187</v>
-      </c>
-      <c r="D207">
-        <v>9.5588</v>
-      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16478,12 +15242,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C208">
-        <v>55.2538</v>
-      </c>
-      <c r="D208">
-        <v>9.1135</v>
-      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16556,12 +15314,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C209">
-        <v>55.0265</v>
-      </c>
-      <c r="D209">
-        <v>12.0668</v>
-      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16634,12 +15386,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C210">
-        <v>56.0086</v>
-      </c>
-      <c r="D210">
-        <v>9.109299999999999</v>
-      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16712,12 +15458,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C211">
-        <v>55.0901</v>
-      </c>
-      <c r="D211">
-        <v>12.0722</v>
-      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16790,12 +15530,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C212">
-        <v>55.5156</v>
-      </c>
-      <c r="D212">
-        <v>10.6695</v>
-      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16868,12 +15602,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C213">
-        <v>55.0573</v>
-      </c>
-      <c r="D213">
-        <v>10.5345</v>
-      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -16936,12 +15664,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C214">
-        <v>56.1991</v>
-      </c>
-      <c r="D214">
-        <v>9.000299999999999</v>
-      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17014,12 +15736,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C215">
-        <v>55.4994</v>
-      </c>
-      <c r="D215">
-        <v>10.2192</v>
-      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17092,12 +15808,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C216">
-        <v>55.3055</v>
-      </c>
-      <c r="D216">
-        <v>10.6544</v>
-      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17170,12 +15880,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C217">
-        <v>55.3348</v>
-      </c>
-      <c r="D217">
-        <v>12.3114</v>
-      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17248,12 +15952,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C218">
-        <v>55.5687</v>
-      </c>
-      <c r="D218">
-        <v>9.555899999999999</v>
-      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17326,12 +16024,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C219">
-        <v>55.672</v>
-      </c>
-      <c r="D219">
-        <v>11.3378</v>
-      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17404,12 +16096,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C220">
-        <v>55.3163</v>
-      </c>
-      <c r="D220">
-        <v>9.331200000000001</v>
-      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17482,12 +16168,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C221">
-        <v>55.8535</v>
-      </c>
-      <c r="D221">
-        <v>11.6839</v>
-      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17560,12 +16240,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C222">
-        <v>56.1904</v>
-      </c>
-      <c r="D222">
-        <v>10.4669</v>
-      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17638,12 +16312,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C223">
-        <v>55.2454</v>
-      </c>
-      <c r="D223">
-        <v>10.4348</v>
-      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17716,12 +16384,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C224">
-        <v>55.0509</v>
-      </c>
-      <c r="D224">
-        <v>10.863</v>
-      </c>
       <c r="E224" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17794,12 +16456,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C225">
-        <v>55.0036</v>
-      </c>
-      <c r="D225">
-        <v>9.3286</v>
-      </c>
       <c r="E225" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17872,12 +16528,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C226">
-        <v>55.6067</v>
-      </c>
-      <c r="D226">
-        <v>11.4447</v>
-      </c>
       <c r="E226" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -17950,12 +16600,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C227">
-        <v>55.367</v>
-      </c>
-      <c r="D227">
-        <v>10.7674</v>
-      </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18028,12 +16672,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C228">
-        <v>55.1152</v>
-      </c>
-      <c r="D228">
-        <v>10.7564</v>
-      </c>
       <c r="E228" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18106,12 +16744,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C229">
-        <v>56.1302</v>
-      </c>
-      <c r="D229">
-        <v>10.017</v>
-      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18184,12 +16816,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C230">
-        <v>56.1972</v>
-      </c>
-      <c r="D230">
-        <v>9.2256</v>
-      </c>
       <c r="E230" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18252,12 +16878,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C231">
-        <v>56.0068</v>
-      </c>
-      <c r="D231">
-        <v>9.6706</v>
-      </c>
       <c r="E231" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18330,12 +16950,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C232">
-        <v>55.557</v>
-      </c>
-      <c r="D232">
-        <v>10.6681</v>
-      </c>
       <c r="E232" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18408,12 +17022,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C233">
-        <v>55.8824</v>
-      </c>
-      <c r="D233">
-        <v>8.6646</v>
-      </c>
       <c r="E233" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18486,12 +17094,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C234">
-        <v>57.3215</v>
-      </c>
-      <c r="D234">
-        <v>10.3951</v>
-      </c>
       <c r="E234" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18564,12 +17166,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C235">
-        <v>56.1319</v>
-      </c>
-      <c r="D235">
-        <v>9.788600000000001</v>
-      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18642,12 +17238,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C236">
-        <v>55.4324</v>
-      </c>
-      <c r="D236">
-        <v>10.5497</v>
-      </c>
       <c r="E236" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18720,12 +17310,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C237">
-        <v>57.4496</v>
-      </c>
-      <c r="D237">
-        <v>10.1667</v>
-      </c>
       <c r="E237" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18798,12 +17382,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C238">
-        <v>56.1965</v>
-      </c>
-      <c r="D238">
-        <v>8.548999999999999</v>
-      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18866,12 +17444,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C239">
-        <v>56.5042</v>
-      </c>
-      <c r="D239">
-        <v>10.365</v>
-      </c>
       <c r="E239" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -18944,12 +17516,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C240">
-        <v>56.0061</v>
-      </c>
-      <c r="D240">
-        <v>9.786099999999999</v>
-      </c>
       <c r="E240" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19022,12 +17588,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C241">
-        <v>57.5143</v>
-      </c>
-      <c r="D241">
-        <v>10.1688</v>
-      </c>
       <c r="E241" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19100,12 +17660,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C242">
-        <v>54.9285</v>
-      </c>
-      <c r="D242">
-        <v>10.7481</v>
-      </c>
       <c r="E242" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19178,12 +17732,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C243">
-        <v>55.001</v>
-      </c>
-      <c r="D243">
-        <v>9.5474</v>
-      </c>
       <c r="E243" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19256,12 +17804,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C244">
-        <v>55.1278</v>
-      </c>
-      <c r="D244">
-        <v>14.7812</v>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19334,12 +17876,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C245">
-        <v>54.8131</v>
-      </c>
-      <c r="D245">
-        <v>9.3301</v>
-      </c>
       <c r="E245" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19412,12 +17948,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C246">
-        <v>55.0647</v>
-      </c>
-      <c r="D246">
-        <v>8.6715</v>
-      </c>
       <c r="E246" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19490,12 +18020,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C247">
-        <v>56.6312</v>
-      </c>
-      <c r="D247">
-        <v>10.2554</v>
-      </c>
       <c r="E247" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19568,12 +18092,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C248">
-        <v>55.1911</v>
-      </c>
-      <c r="D248">
-        <v>9.0006</v>
-      </c>
       <c r="E248" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19646,12 +18164,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C249">
-        <v>54.9035</v>
-      </c>
-      <c r="D249">
-        <v>11.9482</v>
-      </c>
       <c r="E249" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19724,12 +18236,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C250">
-        <v>54.7959</v>
-      </c>
-      <c r="D250">
-        <v>11.0691</v>
-      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19802,12 +18308,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C251">
-        <v>54.9391</v>
-      </c>
-      <c r="D251">
-        <v>9.2219</v>
-      </c>
       <c r="E251" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19880,12 +18380,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C252">
-        <v>55.7368</v>
-      </c>
-      <c r="D252">
-        <v>11.2301</v>
-      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -19958,12 +18452,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C253">
-        <v>54.5899</v>
-      </c>
-      <c r="D253">
-        <v>11.9257</v>
-      </c>
       <c r="E253" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20036,12 +18524,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C254">
-        <v>55.3155</v>
-      </c>
-      <c r="D254">
-        <v>9.5517</v>
-      </c>
       <c r="E254" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20114,12 +18596,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C255">
-        <v>55.7552</v>
-      </c>
-      <c r="D255">
-        <v>9.669499999999999</v>
-      </c>
       <c r="E255" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20192,12 +18668,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C256">
-        <v>55.6296</v>
-      </c>
-      <c r="D256">
-        <v>9.670299999999999</v>
-      </c>
       <c r="E256" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20270,12 +18740,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C257">
-        <v>56.4486</v>
-      </c>
-      <c r="D257">
-        <v>8.773099999999999</v>
-      </c>
       <c r="E257" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20348,12 +18812,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C258">
-        <v>55.8191</v>
-      </c>
-      <c r="D258">
-        <v>8.5535</v>
-      </c>
       <c r="E258" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20426,12 +18884,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C259">
-        <v>55.4207</v>
-      </c>
-      <c r="D259">
-        <v>11.2122</v>
-      </c>
       <c r="E259" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20504,12 +18956,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C260">
-        <v>55.66</v>
-      </c>
-      <c r="D260">
-        <v>11.8935</v>
-      </c>
       <c r="E260" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20582,12 +19028,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C261">
-        <v>55.2777</v>
-      </c>
-      <c r="D261">
-        <v>12.0861</v>
-      </c>
       <c r="E261" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20660,12 +19100,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C262">
-        <v>55.5396</v>
-      </c>
-      <c r="D262">
-        <v>11.6628</v>
-      </c>
       <c r="E262" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20738,12 +19172,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C263">
-        <v>55.1908</v>
-      </c>
-      <c r="D263">
-        <v>14.9975</v>
-      </c>
       <c r="E263" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20816,12 +19244,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C264">
-        <v>55.8229</v>
-      </c>
-      <c r="D264">
-        <v>10.6329</v>
-      </c>
       <c r="E264" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20894,12 +19316,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C265">
-        <v>54.9609</v>
-      </c>
-      <c r="D265">
-        <v>12.1711</v>
-      </c>
       <c r="E265" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -20972,12 +19388,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C266">
-        <v>55.2767</v>
-      </c>
-      <c r="D266">
-        <v>12.1963</v>
-      </c>
       <c r="E266" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21050,12 +19460,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C267">
-        <v>56.7004</v>
-      </c>
-      <c r="D267">
-        <v>9.114599999999999</v>
-      </c>
       <c r="E267" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21128,12 +19532,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C268">
-        <v>55.5623</v>
-      </c>
-      <c r="D268">
-        <v>10.2211</v>
-      </c>
       <c r="E268" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21206,12 +19604,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C269">
-        <v>55.5004</v>
-      </c>
-      <c r="D269">
-        <v>10.1084</v>
-      </c>
       <c r="E269" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21284,12 +19676,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C270">
-        <v>55.6308</v>
-      </c>
-      <c r="D270">
-        <v>9.3338</v>
-      </c>
       <c r="E270" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21352,12 +19738,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C271">
-        <v>55.0655</v>
-      </c>
-      <c r="D271">
-        <v>15.1104</v>
-      </c>
       <c r="E271" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21430,12 +19810,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C272">
-        <v>55.6703</v>
-      </c>
-      <c r="D272">
-        <v>11.4487</v>
-      </c>
       <c r="E272" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21508,12 +19882,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C273">
-        <v>56.0715</v>
-      </c>
-      <c r="D273">
-        <v>8.887499999999999</v>
-      </c>
       <c r="E273" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21586,12 +19954,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C274">
-        <v>55.13</v>
-      </c>
-      <c r="D274">
-        <v>15.0007</v>
-      </c>
       <c r="E274" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21664,12 +20026,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C275">
-        <v>55.4134</v>
-      </c>
-      <c r="D275">
-        <v>11.6543</v>
-      </c>
       <c r="E275" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21742,12 +20098,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C276">
-        <v>55.9444</v>
-      </c>
-      <c r="D276">
-        <v>9.560600000000001</v>
-      </c>
       <c r="E276" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21820,12 +20170,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C277">
-        <v>56.1948</v>
-      </c>
-      <c r="D277">
-        <v>8.210599999999999</v>
-      </c>
       <c r="E277" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21898,12 +20242,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C278">
-        <v>55.0179</v>
-      </c>
-      <c r="D278">
-        <v>12.3916</v>
-      </c>
       <c r="E278" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -21976,12 +20314,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C279">
-        <v>55.2535</v>
-      </c>
-      <c r="D279">
-        <v>8.780200000000001</v>
-      </c>
       <c r="E279" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22054,12 +20386,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C280">
-        <v>56.9511</v>
-      </c>
-      <c r="D280">
-        <v>9.345499999999999</v>
-      </c>
       <c r="E280" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22132,12 +20458,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C281">
-        <v>54.8398</v>
-      </c>
-      <c r="D281">
-        <v>12.0526</v>
-      </c>
       <c r="E281" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22210,12 +20530,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C282">
-        <v>55.4833</v>
-      </c>
-      <c r="D282">
-        <v>11.3265</v>
-      </c>
       <c r="E282" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22288,12 +20602,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C283">
-        <v>55.9449</v>
-      </c>
-      <c r="D283">
-        <v>9.448600000000001</v>
-      </c>
       <c r="E283" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22366,12 +20674,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C284">
-        <v>56.07</v>
-      </c>
-      <c r="D284">
-        <v>8.4382</v>
-      </c>
       <c r="E284" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22444,12 +20746,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C285">
-        <v>55.4439</v>
-      </c>
-      <c r="D285">
-        <v>9.332700000000001</v>
-      </c>
       <c r="E285" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22522,12 +20818,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C286">
-        <v>55.5665</v>
-      </c>
-      <c r="D286">
-        <v>9.666</v>
-      </c>
       <c r="E286" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22600,12 +20890,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C287">
-        <v>56.8877</v>
-      </c>
-      <c r="D287">
-        <v>8.4261</v>
-      </c>
       <c r="E287" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22678,12 +20962,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C288">
-        <v>56.8906</v>
-      </c>
-      <c r="D288">
-        <v>9.23</v>
-      </c>
       <c r="E288" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22756,12 +21034,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C289">
-        <v>56.4485</v>
-      </c>
-      <c r="D289">
-        <v>8.887600000000001</v>
-      </c>
       <c r="E289" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22834,12 +21106,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C290">
-        <v>54.9388</v>
-      </c>
-      <c r="D290">
-        <v>9.1096</v>
-      </c>
       <c r="E290" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22912,12 +21178,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C291">
-        <v>54.9177</v>
-      </c>
-      <c r="D291">
-        <v>11.2938</v>
-      </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -22990,12 +21250,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C292">
-        <v>56.069</v>
-      </c>
-      <c r="D292">
-        <v>9.7873</v>
-      </c>
       <c r="E292" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23068,12 +21322,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C293">
-        <v>57.0776</v>
-      </c>
-      <c r="D293">
-        <v>9.693099999999999</v>
-      </c>
       <c r="E293" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23146,12 +21394,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C294">
-        <v>55.4005</v>
-      </c>
-      <c r="D294">
-        <v>12.2063</v>
-      </c>
       <c r="E294" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23224,12 +21466,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C295">
-        <v>54.6658</v>
-      </c>
-      <c r="D295">
-        <v>11.3877</v>
-      </c>
       <c r="E295" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23302,12 +21538,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C296">
-        <v>55.0651</v>
-      </c>
-      <c r="D296">
-        <v>8.890700000000001</v>
-      </c>
       <c r="E296" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23370,12 +21600,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C297">
-        <v>54.8658</v>
-      </c>
-      <c r="D297">
-        <v>10.7453</v>
-      </c>
       <c r="E297" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23448,12 +21672,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C298">
-        <v>54.9991</v>
-      </c>
-      <c r="D298">
-        <v>9.8752</v>
-      </c>
       <c r="E298" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23526,12 +21744,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C299">
-        <v>54.8762</v>
-      </c>
-      <c r="D299">
-        <v>9.2216</v>
-      </c>
       <c r="E299" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23604,12 +21816,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C300">
-        <v>55.5</v>
-      </c>
-      <c r="D300">
-        <v>10.33</v>
-      </c>
       <c r="E300" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23682,12 +21888,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C301">
-        <v>56.434</v>
-      </c>
-      <c r="D301">
-        <v>10.9304</v>
-      </c>
       <c r="E301" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23760,12 +21960,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C302">
-        <v>57.3267</v>
-      </c>
-      <c r="D302">
-        <v>9.813700000000001</v>
-      </c>
       <c r="E302" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23838,12 +22032,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C303">
-        <v>55.2467</v>
-      </c>
-      <c r="D303">
-        <v>10.3216</v>
-      </c>
       <c r="E303" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23916,12 +22104,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C304">
-        <v>54.8568</v>
-      </c>
-      <c r="D304">
-        <v>11.1808</v>
-      </c>
       <c r="E304" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -23994,12 +22176,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C305">
-        <v>55.1907</v>
-      </c>
-      <c r="D305">
-        <v>14.7808</v>
-      </c>
       <c r="E305" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24072,12 +22248,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C306">
-        <v>55.3167</v>
-      </c>
-      <c r="D306">
-        <v>9.000299999999999</v>
-      </c>
       <c r="E306" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24140,12 +22310,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C307">
-        <v>55.5972</v>
-      </c>
-      <c r="D307">
-        <v>11.8889</v>
-      </c>
       <c r="E307" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24218,12 +22382,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C308">
-        <v>55.4435</v>
-      </c>
-      <c r="D308">
-        <v>9.664199999999999</v>
-      </c>
       <c r="E308" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24296,12 +22454,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C309">
-        <v>57.1997</v>
-      </c>
-      <c r="D309">
-        <v>9.927</v>
-      </c>
       <c r="E309" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24374,12 +22526,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C310">
-        <v>56.8253</v>
-      </c>
-      <c r="D310">
-        <v>8.541499999999999</v>
-      </c>
       <c r="E310" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24452,12 +22598,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C311">
-        <v>55.5414</v>
-      </c>
-      <c r="D311">
-        <v>11.5518</v>
-      </c>
       <c r="E311" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24530,12 +22670,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C312">
-        <v>56.7624</v>
-      </c>
-      <c r="D312">
-        <v>9.458299999999999</v>
-      </c>
       <c r="E312" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24608,12 +22742,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C313">
-        <v>55.758</v>
-      </c>
-      <c r="D313">
-        <v>8.5541</v>
-      </c>
       <c r="E313" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24686,12 +22814,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C314">
-        <v>57.0769</v>
-      </c>
-      <c r="D314">
-        <v>9.4621</v>
-      </c>
       <c r="E314" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24764,12 +22886,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C315">
-        <v>56.5092</v>
-      </c>
-      <c r="D315">
-        <v>9.7964</v>
-      </c>
       <c r="E315" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24842,12 +22958,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C316">
-        <v>56.1326</v>
-      </c>
-      <c r="D316">
-        <v>8.3239</v>
-      </c>
       <c r="E316" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24920,12 +23030,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C317">
-        <v>55.0651</v>
-      </c>
-      <c r="D317">
-        <v>9.000299999999999</v>
-      </c>
       <c r="E317" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -24998,12 +23102,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C318">
-        <v>55.4401</v>
-      </c>
-      <c r="D318">
-        <v>9.774800000000001</v>
-      </c>
       <c r="E318" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25076,12 +23174,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C319">
-        <v>56.0068</v>
-      </c>
-      <c r="D319">
-        <v>8.326700000000001</v>
-      </c>
       <c r="E319" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25154,12 +23246,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C320">
-        <v>57.2023</v>
-      </c>
-      <c r="D320">
-        <v>9.5793</v>
-      </c>
       <c r="E320" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25232,12 +23318,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C321">
-        <v>56.6375</v>
-      </c>
-      <c r="D321">
-        <v>8.886100000000001</v>
-      </c>
       <c r="E321" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25310,12 +23390,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C322">
-        <v>57.261</v>
-      </c>
-      <c r="D322">
-        <v>10.1607</v>
-      </c>
       <c r="E322" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25388,12 +23462,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C323">
-        <v>56.3745</v>
-      </c>
-      <c r="D323">
-        <v>10.8137</v>
-      </c>
       <c r="E323" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25466,12 +23534,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C324">
-        <v>56.3168</v>
-      </c>
-      <c r="D324">
-        <v>10.2451</v>
-      </c>
       <c r="E324" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25534,12 +23596,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C325">
-        <v>56.3156</v>
-      </c>
-      <c r="D325">
-        <v>10.3586</v>
-      </c>
       <c r="E325" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25612,12 +23668,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C326">
-        <v>55.817</v>
-      </c>
-      <c r="D326">
-        <v>9.8972</v>
-      </c>
       <c r="E326" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25690,12 +23740,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C327">
-        <v>57.2619</v>
-      </c>
-      <c r="D327">
-        <v>10.0447</v>
-      </c>
       <c r="E327" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25768,12 +23812,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C328">
-        <v>55.8183</v>
-      </c>
-      <c r="D328">
-        <v>9.6709</v>
-      </c>
       <c r="E328" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25846,12 +23884,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C329">
-        <v>56.7614</v>
-      </c>
-      <c r="D329">
-        <v>8.3133</v>
-      </c>
       <c r="E329" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -25924,12 +23956,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C330">
-        <v>56.3743</v>
-      </c>
-      <c r="D330">
-        <v>10.7004</v>
-      </c>
       <c r="E330" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26002,12 +24028,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C331">
-        <v>55.4313</v>
-      </c>
-      <c r="D331">
-        <v>10.6596</v>
-      </c>
       <c r="E331" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26080,12 +24100,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C332">
-        <v>56.6959</v>
-      </c>
-      <c r="D332">
-        <v>10.2576</v>
-      </c>
       <c r="E332" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26158,12 +24172,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C333">
-        <v>57.2647</v>
-      </c>
-      <c r="D333">
-        <v>9.928699999999999</v>
-      </c>
       <c r="E333" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26236,12 +24244,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C334">
-        <v>55.6741</v>
-      </c>
-      <c r="D334">
-        <v>11.2263</v>
-      </c>
       <c r="E334" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26314,12 +24316,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C335">
-        <v>55.6651</v>
-      </c>
-      <c r="D335">
-        <v>11.6712</v>
-      </c>
       <c r="E335" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26392,12 +24388,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C336">
-        <v>56.4382</v>
-      </c>
-      <c r="D336">
-        <v>10.5903</v>
-      </c>
       <c r="E336" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26470,12 +24460,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C337">
-        <v>55.4759</v>
-      </c>
-      <c r="D337">
-        <v>11.7692</v>
-      </c>
       <c r="E337" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26548,12 +24532,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C338">
-        <v>55.4854</v>
-      </c>
-      <c r="D338">
-        <v>11.2158</v>
-      </c>
       <c r="E338" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26626,12 +24604,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C339">
-        <v>56.5741</v>
-      </c>
-      <c r="D339">
-        <v>9.3423</v>
-      </c>
       <c r="E339" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26704,12 +24676,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C340">
-        <v>55.5889</v>
-      </c>
-      <c r="D340">
-        <v>12.2216</v>
-      </c>
       <c r="E340" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26782,12 +24748,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C341">
-        <v>56.0081</v>
-      </c>
-      <c r="D341">
-        <v>8.663500000000001</v>
-      </c>
       <c r="E341" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26850,12 +24810,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C342">
-        <v>56.3825</v>
-      </c>
-      <c r="D342">
-        <v>9.9102</v>
-      </c>
       <c r="E342" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -26928,12 +24882,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C343">
-        <v>55.7364</v>
-      </c>
-      <c r="D343">
-        <v>11.3417</v>
-      </c>
       <c r="E343" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27006,12 +24954,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C344">
-        <v>55.252</v>
-      </c>
-      <c r="D344">
-        <v>9.661</v>
-      </c>
       <c r="E344" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27084,12 +25026,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C345">
-        <v>55.548</v>
-      </c>
-      <c r="D345">
-        <v>11.3303</v>
-      </c>
       <c r="E345" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27162,12 +25098,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C346">
-        <v>56.8192</v>
-      </c>
-      <c r="D346">
-        <v>10.1466</v>
-      </c>
       <c r="E346" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27240,12 +25170,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C347">
-        <v>56.6367</v>
-      </c>
-      <c r="D347">
-        <v>8.543799999999999</v>
-      </c>
       <c r="E347" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27318,12 +25242,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C348">
-        <v>55.3185</v>
-      </c>
-      <c r="D348">
-        <v>8.890000000000001</v>
-      </c>
       <c r="E348" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27396,12 +25314,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C349">
-        <v>56.9535</v>
-      </c>
-      <c r="D349">
-        <v>8.770099999999999</v>
-      </c>
       <c r="E349" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27474,12 +25386,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C350">
-        <v>56.5117</v>
-      </c>
-      <c r="D350">
-        <v>9.114000000000001</v>
-      </c>
       <c r="E350" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27552,12 +25458,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C351">
-        <v>56.2583</v>
-      </c>
-      <c r="D351">
-        <v>8.3223</v>
-      </c>
       <c r="E351" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27630,12 +25530,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C352">
-        <v>55.9453</v>
-      </c>
-      <c r="D352">
-        <v>9.336499999999999</v>
-      </c>
       <c r="E352" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27708,12 +25602,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C353">
-        <v>56.4486</v>
-      </c>
-      <c r="D353">
-        <v>9.230600000000001</v>
-      </c>
       <c r="E353" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27786,12 +25674,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C354">
-        <v>57.3895</v>
-      </c>
-      <c r="D354">
-        <v>9.8154</v>
-      </c>
       <c r="E354" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27864,12 +25746,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C355">
-        <v>56.5104</v>
-      </c>
-      <c r="D355">
-        <v>9.569000000000001</v>
-      </c>
       <c r="E355" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -27942,12 +25818,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C356">
-        <v>56.7009</v>
-      </c>
-      <c r="D356">
-        <v>8.428699999999999</v>
-      </c>
       <c r="E356" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28020,12 +25890,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C357">
-        <v>56.7627</v>
-      </c>
-      <c r="D357">
-        <v>9.1151</v>
-      </c>
       <c r="E357" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28098,12 +25962,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C358">
-        <v>56.26</v>
-      </c>
-      <c r="D358">
-        <v>8.7737</v>
-      </c>
       <c r="E358" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28176,12 +26034,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C359">
-        <v>57.2644</v>
-      </c>
-      <c r="D359">
-        <v>9.6968</v>
-      </c>
       <c r="E359" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28244,12 +26096,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C360">
-        <v>56.3222</v>
-      </c>
-      <c r="D360">
-        <v>9.452999999999999</v>
-      </c>
       <c r="E360" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28322,12 +26168,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C361">
-        <v>56.7607</v>
-      </c>
-      <c r="D361">
-        <v>9.8017</v>
-      </c>
       <c r="E361" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28400,12 +26240,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C362">
-        <v>56.3875</v>
-      </c>
-      <c r="D362">
-        <v>8.7735</v>
-      </c>
       <c r="E362" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28478,12 +26312,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C363">
-        <v>56.258</v>
-      </c>
-      <c r="D363">
-        <v>9.7913</v>
-      </c>
       <c r="E363" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28556,12 +26384,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C364">
-        <v>56.9477</v>
-      </c>
-      <c r="D364">
-        <v>10.0359</v>
-      </c>
       <c r="E364" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28634,12 +26456,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C365">
-        <v>56.2601</v>
-      </c>
-      <c r="D365">
-        <v>8.890499999999999</v>
-      </c>
       <c r="E365" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28702,12 +26518,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C366">
-        <v>56.762</v>
-      </c>
-      <c r="D366">
-        <v>8.4278</v>
-      </c>
       <c r="E366" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28780,12 +26590,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C367">
-        <v>56.5712</v>
-      </c>
-      <c r="D367">
-        <v>9.911300000000001</v>
-      </c>
       <c r="E367" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28858,12 +26662,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C368">
-        <v>56.8243</v>
-      </c>
-      <c r="D368">
-        <v>9.6884</v>
-      </c>
       <c r="E368" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -28936,12 +26734,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C369">
-        <v>56.8846</v>
-      </c>
-      <c r="D369">
-        <v>10.0327</v>
-      </c>
       <c r="E369" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -29014,12 +26806,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C370">
-        <v>56.3231</v>
-      </c>
-      <c r="D370">
-        <v>9.0007</v>
-      </c>
       <c r="E370" t="inlineStr">
         <is>
           <t>agriculture</t>
@@ -29091,12 +26877,6 @@
         <is>
           <t>soil</t>
         </is>
-      </c>
-      <c r="C371">
-        <v>56.7633</v>
-      </c>
-      <c r="D371">
-        <v>9.000299999999999</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
